--- a/Cash_flow.xlsx
+++ b/Cash_flow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Notebook/Library/Mobile Documents/3L68KQB4HG~com~readdle~CommonDocuments/Documents/Fi/Wohnungskauf Steuerberater/Excel_2_DE/2024.10.01 GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BBE327-338D-2344-ABFB-F3BAAB8B6C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4F2B98-D384-AB42-BA98-3346DAB545CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17800" xr2:uid="{06CBA46F-CD0E-E449-B092-F1D9465DA970}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29920" windowHeight="18680" xr2:uid="{06CBA46F-CD0E-E449-B092-F1D9465DA970}"/>
   </bookViews>
   <sheets>
     <sheet name="Cash flow" sheetId="2" r:id="rId1"/>
@@ -218,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P28" authorId="0" shapeId="0" xr:uid="{00F8A907-17DA-774C-A6CF-6F067B360B19}">
+    <comment ref="Q28" authorId="0" shapeId="0" xr:uid="{00F8A907-17DA-774C-A6CF-6F067B360B19}">
       <text>
         <r>
           <rPr>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
   <si>
     <t>Technische Daten</t>
   </si>
@@ -529,6 +529,60 @@
   <si>
     <t>Gewinn/Verlust pro Jahr</t>
   </si>
+  <si>
+    <t>Grundsteuer</t>
+  </si>
+  <si>
+    <t>Wasserversorgung</t>
+  </si>
+  <si>
+    <t>Entwässerung</t>
+  </si>
+  <si>
+    <t>Heizkosten</t>
+  </si>
+  <si>
+    <t>Warmwasserkosten</t>
+  </si>
+  <si>
+    <t>Fahrstuhl</t>
+  </si>
+  <si>
+    <t>Straßenreinigung und Müllabfuhr</t>
+  </si>
+  <si>
+    <t>Gebäudereinigung</t>
+  </si>
+  <si>
+    <t>Gartenpflege</t>
+  </si>
+  <si>
+    <t>Beleuchtung der Gemeinschaftsflächen</t>
+  </si>
+  <si>
+    <t>Gebäudeversicherung</t>
+  </si>
+  <si>
+    <t>Haftpflichtversicherung</t>
+  </si>
+  <si>
+    <t>Hauswart</t>
+  </si>
+  <si>
+    <t>Gemeinschaftsantenne oder Breitbandkabel</t>
+  </si>
+  <si>
+    <t>Sonstige Betriebskosten (z. B. Schornsteinfeger)</t>
+  </si>
+  <si>
+    <t>Nebenkosten pro Quadratmeter: Zwischen 2 € und 3 € pro Monat</t>
+  </si>
+  <si>
+    <t>Betriebskosten gemäß Betriebskostenverordnung (BetrKV)</t>
+  </si>
+  <si>
+    <t>Mietnebenkosten werden auf Mieter umgelegt</t>
+  </si>
 </sst>
 </file>
 
@@ -543,7 +597,7 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -643,8 +697,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,8 +742,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1156,6 +1229,32 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1170,7 +1269,7 @@
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1302,6 +1401,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="3" xr:uid="{82518493-E533-EE48-B175-40105F8DA53E}"/>
@@ -2617,8 +2728,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="42999"/>
-          <a:ext cx="11065933" cy="1080000"/>
+          <a:off x="0" y="42180"/>
+          <a:ext cx="11061837" cy="1080000"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2665,8 +2776,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="886360" y="291499"/>
-          <a:ext cx="9898822" cy="540000"/>
+          <a:off x="886133" y="291090"/>
+          <a:ext cx="9895158" cy="540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2714,8 +2825,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="886360" y="291499"/>
-        <a:ext cx="9898822" cy="540000"/>
+        <a:off x="886133" y="291090"/>
+        <a:ext cx="9895158" cy="540000"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -4467,10 +4578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD18ABAB-5AE5-8C44-B6A9-7327D781A006}">
-  <dimension ref="B1:BN83"/>
+  <dimension ref="B1:BO83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="94" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="62" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -4488,15 +4599,16 @@
     <col min="12" max="12" width="10.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="62.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" style="1" customWidth="1"/>
-    <col min="17" max="66" width="10.83203125" style="1" customWidth="1"/>
-    <col min="67" max="75" width="10.33203125" style="1" customWidth="1"/>
-    <col min="76" max="16384" width="9.1640625" style="1"/>
+    <col min="15" max="15" width="8.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="62.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" style="1" customWidth="1"/>
+    <col min="18" max="67" width="10.83203125" style="1" customWidth="1"/>
+    <col min="68" max="76" width="10.33203125" style="1" customWidth="1"/>
+    <col min="77" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4509,8 +4621,11 @@
         <v>2</v>
       </c>
       <c r="I2" s="4"/>
+      <c r="P2" s="110" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -4530,8 +4645,11 @@
         <f>F25/F6</f>
         <v>7.3511837655016912E-2</v>
       </c>
+      <c r="P3" s="105" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="4" spans="2:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
@@ -4552,8 +4670,11 @@
         <f>(F25-F26-F27)/F8</f>
         <v>8.7591362126245853E-2</v>
       </c>
+      <c r="P4" s="106" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
@@ -4573,8 +4694,11 @@
         <f>(F25*0.75)/F7</f>
         <v>6.2165783898305085E-2</v>
       </c>
+      <c r="P5" s="102" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -4595,8 +4719,11 @@
         <f>F36/F6*10</f>
         <v>1.6893789928598281E-3</v>
       </c>
+      <c r="P6" s="102" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -4617,8 +4744,11 @@
         <f>(F35/F6)</f>
         <v>2.0272547914317938E-3</v>
       </c>
+      <c r="P7" s="102" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="8" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
@@ -4639,8 +4769,11 @@
         <f>F5*0.11/12</f>
         <v>27.5</v>
       </c>
+      <c r="P8" s="102" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="9" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>23</v>
       </c>
@@ -4655,8 +4788,11 @@
         <f>F3/C6</f>
         <v>1000</v>
       </c>
+      <c r="P9" s="102" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
       <c r="E10" s="2" t="s">
@@ -4670,8 +4806,11 @@
         <f>(F3+F5)/C6</f>
         <v>1026.0869565217392</v>
       </c>
+      <c r="P10" s="102" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
@@ -4682,8 +4821,11 @@
       <c r="F11" s="22">
         <v>6.75</v>
       </c>
+      <c r="P11" s="102" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
@@ -4696,8 +4838,11 @@
       <c r="F12" s="24">
         <v>1.05</v>
       </c>
+      <c r="P12" s="102" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>31</v>
       </c>
@@ -4711,8 +4856,11 @@
         <f>F12*F11</f>
         <v>7.0875000000000004</v>
       </c>
+      <c r="P13" s="102" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="14" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>33</v>
       </c>
@@ -4726,17 +4874,23 @@
         <f>F13*C6</f>
         <v>815.0625</v>
       </c>
+      <c r="P14" s="102" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="15" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="27">
         <v>0.25</v>
       </c>
-      <c r="Z15" s="28"/>
+      <c r="P15" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA15" s="28"/>
     </row>
-    <row r="16" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
         <v>36</v>
       </c>
@@ -4756,8 +4910,12 @@
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
       <c r="N16" s="3"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="102" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="17" spans="2:66" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:67" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E17" s="5" t="s">
         <v>39</v>
       </c>
@@ -4782,9 +4940,12 @@
       <c r="N17" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="O17" s="38"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="103" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="18" spans="2:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -4808,9 +4969,12 @@
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
       <c r="N18" s="37"/>
-      <c r="O18" s="38"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="103" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="19" spans="2:66" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:67" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
@@ -4848,9 +5012,12 @@
         <f>F18</f>
         <v>977.5</v>
       </c>
-      <c r="O19" s="38"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="104" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="20" spans="2:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:67" ht="15" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>49</v>
       </c>
@@ -4864,9 +5031,9 @@
         <f>500</f>
         <v>500</v>
       </c>
-      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
     </row>
-    <row r="21" spans="2:66" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:67" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>51</v>
       </c>
@@ -4880,8 +5047,9 @@
         <v>0</v>
       </c>
       <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
     </row>
-    <row r="22" spans="2:66" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:67" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>53</v>
       </c>
@@ -4904,8 +5072,9 @@
       <c r="L22" s="47"/>
       <c r="M22" s="48"/>
       <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
     </row>
-    <row r="23" spans="2:66" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:67" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>56</v>
       </c>
@@ -4915,8 +5084,9 @@
       <c r="H23" s="49"/>
       <c r="M23" s="50"/>
       <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
     </row>
-    <row r="24" spans="2:66" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:67" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="51" t="s">
         <v>54</v>
       </c>
@@ -4932,8 +5102,9 @@
       <c r="H24" s="49"/>
       <c r="M24" s="50"/>
       <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
     </row>
-    <row r="25" spans="2:66" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:67" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D25" s="53"/>
       <c r="E25" s="8" t="s">
         <v>58</v>
@@ -4945,8 +5116,9 @@
       <c r="H25" s="49"/>
       <c r="M25" s="50"/>
       <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
     </row>
-    <row r="26" spans="2:66" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:67" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
       <c r="D26" s="53"/>
@@ -4960,10 +5132,10 @@
       <c r="H26" s="49"/>
       <c r="M26" s="50"/>
       <c r="N26" s="38"/>
-      <c r="O26" s="46" t="s">
+      <c r="O26" s="38"/>
+      <c r="P26" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="P26" s="57"/>
       <c r="Q26" s="57"/>
       <c r="R26" s="57"/>
       <c r="S26" s="57"/>
@@ -5013,9 +5185,10 @@
       <c r="BK26" s="57"/>
       <c r="BL26" s="57"/>
       <c r="BM26" s="57"/>
-      <c r="BN26" s="58"/>
+      <c r="BN26" s="57"/>
+      <c r="BO26" s="58"/>
     </row>
-    <row r="27" spans="2:66" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:67" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="59" t="s">
         <v>61</v>
       </c>
@@ -5031,19 +5204,20 @@
       <c r="H27" s="49"/>
       <c r="M27" s="50"/>
       <c r="N27" s="38"/>
-      <c r="O27" s="60" t="s">
+      <c r="O27" s="38"/>
+      <c r="P27" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="P27" s="61"/>
       <c r="Q27" s="61"/>
       <c r="R27" s="61"/>
       <c r="S27" s="61"/>
       <c r="T27" s="61"/>
       <c r="U27" s="61"/>
       <c r="V27" s="61"/>
-      <c r="BN27" s="50"/>
+      <c r="W27" s="61"/>
+      <c r="BO27" s="50"/>
     </row>
-    <row r="28" spans="2:66" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:67" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
       <c r="E28" s="8" t="s">
@@ -5056,164 +5230,165 @@
       <c r="H28" s="49"/>
       <c r="M28" s="50"/>
       <c r="N28" s="38"/>
-      <c r="O28" s="62" t="s">
+      <c r="O28" s="38"/>
+      <c r="P28" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="P28" s="63" t="s">
+      <c r="Q28" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="Q28" s="64">
+      <c r="R28" s="64">
         <v>1</v>
       </c>
-      <c r="R28" s="65">
+      <c r="S28" s="65">
         <v>2</v>
       </c>
-      <c r="S28" s="65">
+      <c r="T28" s="65">
         <v>3</v>
       </c>
-      <c r="T28" s="65">
+      <c r="U28" s="65">
         <v>4</v>
       </c>
-      <c r="U28" s="65">
+      <c r="V28" s="65">
         <v>5</v>
       </c>
-      <c r="V28" s="65">
+      <c r="W28" s="65">
         <v>6</v>
       </c>
-      <c r="W28" s="65">
+      <c r="X28" s="65">
         <v>7</v>
       </c>
-      <c r="X28" s="65">
+      <c r="Y28" s="65">
         <v>8</v>
       </c>
-      <c r="Y28" s="65">
+      <c r="Z28" s="65">
         <v>9</v>
       </c>
-      <c r="Z28" s="65">
+      <c r="AA28" s="65">
         <v>10</v>
       </c>
-      <c r="AA28" s="65">
+      <c r="AB28" s="65">
         <v>11</v>
       </c>
-      <c r="AB28" s="65">
+      <c r="AC28" s="65">
         <v>12</v>
       </c>
-      <c r="AC28" s="65">
+      <c r="AD28" s="65">
         <v>13</v>
       </c>
-      <c r="AD28" s="65">
+      <c r="AE28" s="65">
         <v>14</v>
       </c>
-      <c r="AE28" s="65">
+      <c r="AF28" s="65">
         <v>15</v>
       </c>
-      <c r="AF28" s="65">
+      <c r="AG28" s="65">
         <v>16</v>
       </c>
-      <c r="AG28" s="65">
+      <c r="AH28" s="65">
         <v>17</v>
       </c>
-      <c r="AH28" s="65">
+      <c r="AI28" s="65">
         <v>18</v>
       </c>
-      <c r="AI28" s="65">
+      <c r="AJ28" s="65">
         <v>19</v>
       </c>
-      <c r="AJ28" s="65">
+      <c r="AK28" s="65">
         <v>20</v>
       </c>
-      <c r="AK28" s="65">
+      <c r="AL28" s="65">
         <v>21</v>
       </c>
-      <c r="AL28" s="65">
+      <c r="AM28" s="65">
         <v>22</v>
       </c>
-      <c r="AM28" s="65">
+      <c r="AN28" s="65">
         <v>23</v>
       </c>
-      <c r="AN28" s="65">
+      <c r="AO28" s="65">
         <v>24</v>
       </c>
-      <c r="AO28" s="65">
+      <c r="AP28" s="65">
         <v>25</v>
       </c>
-      <c r="AP28" s="65">
+      <c r="AQ28" s="65">
         <v>26</v>
       </c>
-      <c r="AQ28" s="65">
+      <c r="AR28" s="65">
         <v>27</v>
       </c>
-      <c r="AR28" s="65">
+      <c r="AS28" s="65">
         <v>28</v>
       </c>
-      <c r="AS28" s="65">
+      <c r="AT28" s="65">
         <v>29</v>
       </c>
-      <c r="AT28" s="65">
+      <c r="AU28" s="65">
         <v>30</v>
       </c>
-      <c r="AU28" s="65">
+      <c r="AV28" s="65">
         <v>31</v>
       </c>
-      <c r="AV28" s="65">
+      <c r="AW28" s="65">
         <v>32</v>
       </c>
-      <c r="AW28" s="65">
+      <c r="AX28" s="65">
         <v>33</v>
       </c>
-      <c r="AX28" s="65">
+      <c r="AY28" s="65">
         <v>34</v>
       </c>
-      <c r="AY28" s="65">
+      <c r="AZ28" s="65">
         <v>35</v>
       </c>
-      <c r="AZ28" s="65">
+      <c r="BA28" s="65">
         <v>36</v>
       </c>
-      <c r="BA28" s="65">
+      <c r="BB28" s="65">
         <v>37</v>
       </c>
-      <c r="BB28" s="65">
+      <c r="BC28" s="65">
         <v>38</v>
       </c>
-      <c r="BC28" s="65">
+      <c r="BD28" s="65">
         <v>39</v>
       </c>
-      <c r="BD28" s="65">
+      <c r="BE28" s="65">
         <v>40</v>
       </c>
-      <c r="BE28" s="65">
+      <c r="BF28" s="65">
         <v>41</v>
       </c>
-      <c r="BF28" s="65">
+      <c r="BG28" s="65">
         <v>42</v>
       </c>
-      <c r="BG28" s="65">
+      <c r="BH28" s="65">
         <v>43</v>
       </c>
-      <c r="BH28" s="65">
+      <c r="BI28" s="65">
         <v>44</v>
       </c>
-      <c r="BI28" s="65">
+      <c r="BJ28" s="65">
         <v>45</v>
       </c>
-      <c r="BJ28" s="65">
+      <c r="BK28" s="65">
         <v>46</v>
       </c>
-      <c r="BK28" s="65">
+      <c r="BL28" s="65">
         <v>47</v>
       </c>
-      <c r="BL28" s="65">
+      <c r="BM28" s="65">
         <v>48</v>
       </c>
-      <c r="BM28" s="65">
+      <c r="BN28" s="65">
         <v>49</v>
       </c>
-      <c r="BN28" s="66">
+      <c r="BO28" s="66">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="2:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:67" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
       <c r="E29" s="8" t="s">
@@ -5226,214 +5401,215 @@
       <c r="H29" s="49"/>
       <c r="M29" s="50"/>
       <c r="N29" s="38"/>
-      <c r="O29" s="67" t="s">
+      <c r="O29" s="38"/>
+      <c r="P29" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="P29" s="68">
+      <c r="Q29" s="68">
         <v>1.0249999999999999</v>
       </c>
-      <c r="Q29" s="69">
+      <c r="R29" s="69">
         <f>F25*(1-C16)</f>
         <v>9585.1350000000002</v>
       </c>
-      <c r="R29" s="70">
-        <f t="shared" ref="R29:AW29" si="0">$P$29*Q$29</f>
+      <c r="S29" s="70">
+        <f t="shared" ref="S29:AX29" si="0">$Q$29*R$29</f>
         <v>9824.7633749999986</v>
       </c>
-      <c r="S29" s="70">
+      <c r="T29" s="70">
         <f t="shared" si="0"/>
         <v>10070.382459374998</v>
       </c>
-      <c r="T29" s="70">
+      <c r="U29" s="70">
         <f t="shared" si="0"/>
         <v>10322.142020859372</v>
       </c>
-      <c r="U29" s="70">
+      <c r="V29" s="70">
         <f t="shared" si="0"/>
         <v>10580.195571380855</v>
       </c>
-      <c r="V29" s="70">
+      <c r="W29" s="70">
         <f t="shared" si="0"/>
         <v>10844.700460665375</v>
       </c>
-      <c r="W29" s="70">
+      <c r="X29" s="70">
         <f t="shared" si="0"/>
         <v>11115.817972182009</v>
       </c>
-      <c r="X29" s="70">
+      <c r="Y29" s="70">
         <f t="shared" si="0"/>
         <v>11393.713421486558</v>
       </c>
-      <c r="Y29" s="70">
+      <c r="Z29" s="70">
         <f t="shared" si="0"/>
         <v>11678.556257023722</v>
       </c>
-      <c r="Z29" s="70">
+      <c r="AA29" s="70">
         <f t="shared" si="0"/>
         <v>11970.520163449313</v>
       </c>
-      <c r="AA29" s="70">
+      <c r="AB29" s="70">
         <f t="shared" si="0"/>
         <v>12269.783167535545</v>
       </c>
-      <c r="AB29" s="70">
+      <c r="AC29" s="70">
         <f t="shared" si="0"/>
         <v>12576.527746723932</v>
       </c>
-      <c r="AC29" s="70">
+      <c r="AD29" s="70">
         <f t="shared" si="0"/>
         <v>12890.940940392029</v>
       </c>
-      <c r="AD29" s="70">
+      <c r="AE29" s="70">
         <f t="shared" si="0"/>
         <v>13213.214463901828</v>
       </c>
-      <c r="AE29" s="70">
+      <c r="AF29" s="70">
         <f t="shared" si="0"/>
         <v>13543.544825499372</v>
       </c>
-      <c r="AF29" s="70">
+      <c r="AG29" s="70">
         <f t="shared" si="0"/>
         <v>13882.133446136855</v>
       </c>
-      <c r="AG29" s="70">
+      <c r="AH29" s="70">
         <f t="shared" si="0"/>
         <v>14229.186782290275</v>
       </c>
-      <c r="AH29" s="70">
+      <c r="AI29" s="70">
         <f t="shared" si="0"/>
         <v>14584.91645184753</v>
       </c>
-      <c r="AI29" s="70">
+      <c r="AJ29" s="70">
         <f t="shared" si="0"/>
         <v>14949.539363143716</v>
       </c>
-      <c r="AJ29" s="70">
+      <c r="AK29" s="70">
         <f t="shared" si="0"/>
         <v>15323.277847222307</v>
       </c>
-      <c r="AK29" s="70">
+      <c r="AL29" s="70">
         <f t="shared" si="0"/>
         <v>15706.359793402864</v>
       </c>
-      <c r="AL29" s="70">
+      <c r="AM29" s="70">
         <f t="shared" si="0"/>
         <v>16099.018788237934</v>
       </c>
-      <c r="AM29" s="70">
+      <c r="AN29" s="70">
         <f t="shared" si="0"/>
         <v>16501.494257943879</v>
       </c>
-      <c r="AN29" s="70">
+      <c r="AO29" s="70">
         <f t="shared" si="0"/>
         <v>16914.031614392476</v>
       </c>
-      <c r="AO29" s="70">
+      <c r="AP29" s="70">
         <f t="shared" si="0"/>
         <v>17336.882404752287</v>
       </c>
-      <c r="AP29" s="70">
+      <c r="AQ29" s="70">
         <f t="shared" si="0"/>
         <v>17770.304464871093</v>
       </c>
-      <c r="AQ29" s="70">
+      <c r="AR29" s="70">
         <f t="shared" si="0"/>
         <v>18214.562076492868</v>
       </c>
-      <c r="AR29" s="70">
+      <c r="AS29" s="70">
         <f t="shared" si="0"/>
         <v>18669.92612840519</v>
       </c>
-      <c r="AS29" s="70">
+      <c r="AT29" s="70">
         <f t="shared" si="0"/>
         <v>19136.674281615316</v>
       </c>
-      <c r="AT29" s="70">
+      <c r="AU29" s="70">
         <f t="shared" si="0"/>
         <v>19615.091138655698</v>
       </c>
-      <c r="AU29" s="70">
+      <c r="AV29" s="70">
         <f t="shared" si="0"/>
         <v>20105.468417122091</v>
       </c>
-      <c r="AV29" s="70">
+      <c r="AW29" s="70">
         <f t="shared" si="0"/>
         <v>20608.105127550141</v>
       </c>
-      <c r="AW29" s="70">
+      <c r="AX29" s="70">
         <f t="shared" si="0"/>
         <v>21123.307755738893</v>
       </c>
-      <c r="AX29" s="70">
-        <f t="shared" ref="AX29:BN29" si="1">$P$29*AW$29</f>
+      <c r="AY29" s="70">
+        <f t="shared" ref="AY29:BO29" si="1">$Q$29*AX$29</f>
         <v>21651.390449632363</v>
       </c>
-      <c r="AY29" s="70">
+      <c r="AZ29" s="70">
         <f t="shared" si="1"/>
         <v>22192.675210873171</v>
       </c>
-      <c r="AZ29" s="70">
+      <c r="BA29" s="70">
         <f t="shared" si="1"/>
         <v>22747.492091144999</v>
       </c>
-      <c r="BA29" s="70">
+      <c r="BB29" s="70">
         <f t="shared" si="1"/>
         <v>23316.179393423623</v>
       </c>
-      <c r="BB29" s="70">
+      <c r="BC29" s="70">
         <f t="shared" si="1"/>
         <v>23899.083878259211</v>
       </c>
-      <c r="BC29" s="70">
+      <c r="BD29" s="70">
         <f t="shared" si="1"/>
         <v>24496.560975215689</v>
       </c>
-      <c r="BD29" s="70">
+      <c r="BE29" s="70">
         <f t="shared" si="1"/>
         <v>25108.974999596077</v>
       </c>
-      <c r="BE29" s="70">
+      <c r="BF29" s="70">
         <f t="shared" si="1"/>
         <v>25736.699374585976</v>
       </c>
-      <c r="BF29" s="70">
+      <c r="BG29" s="70">
         <f t="shared" si="1"/>
         <v>26380.116858950623</v>
       </c>
-      <c r="BG29" s="70">
+      <c r="BH29" s="70">
         <f t="shared" si="1"/>
         <v>27039.619780424386</v>
       </c>
-      <c r="BH29" s="70">
+      <c r="BI29" s="70">
         <f t="shared" si="1"/>
         <v>27715.610274934992</v>
       </c>
-      <c r="BI29" s="70">
+      <c r="BJ29" s="70">
         <f t="shared" si="1"/>
         <v>28408.500531808364</v>
       </c>
-      <c r="BJ29" s="70">
+      <c r="BK29" s="70">
         <f t="shared" si="1"/>
         <v>29118.71304510357</v>
       </c>
-      <c r="BK29" s="70">
+      <c r="BL29" s="70">
         <f t="shared" si="1"/>
         <v>29846.680871231158</v>
       </c>
-      <c r="BL29" s="70">
+      <c r="BM29" s="70">
         <f t="shared" si="1"/>
         <v>30592.847893011935</v>
       </c>
-      <c r="BM29" s="70">
+      <c r="BN29" s="70">
         <f t="shared" si="1"/>
         <v>31357.669090337229</v>
       </c>
-      <c r="BN29" s="71">
+      <c r="BO29" s="71">
         <f t="shared" si="1"/>
         <v>32141.610817595658</v>
       </c>
     </row>
-    <row r="30" spans="2:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:67" ht="15" x14ac:dyDescent="0.2">
       <c r="E30" s="8" t="s">
         <v>69</v>
       </c>
@@ -5445,426 +5621,428 @@
       <c r="H30" s="49"/>
       <c r="M30" s="50"/>
       <c r="N30" s="38"/>
-      <c r="O30" s="39" t="s">
+      <c r="O30" s="38"/>
+      <c r="P30" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="P30" s="72">
+      <c r="Q30" s="72">
         <v>1.01</v>
       </c>
-      <c r="Q30" s="73">
+      <c r="R30" s="73">
         <f>$F18</f>
         <v>977.5</v>
       </c>
-      <c r="R30" s="36">
-        <f t="shared" ref="R30:AW30" si="2">$P$30*Q$30</f>
+      <c r="S30" s="36">
+        <f t="shared" ref="S30:AX30" si="2">$Q$30*R$30</f>
         <v>987.27499999999998</v>
       </c>
-      <c r="S30" s="36">
+      <c r="T30" s="36">
         <f t="shared" si="2"/>
         <v>997.14774999999997</v>
       </c>
-      <c r="T30" s="36">
+      <c r="U30" s="36">
         <f t="shared" si="2"/>
         <v>1007.1192275</v>
       </c>
-      <c r="U30" s="36">
+      <c r="V30" s="36">
         <f t="shared" si="2"/>
         <v>1017.190419775</v>
       </c>
-      <c r="V30" s="36">
+      <c r="W30" s="36">
         <f t="shared" si="2"/>
         <v>1027.3623239727501</v>
       </c>
-      <c r="W30" s="36">
+      <c r="X30" s="36">
         <f t="shared" si="2"/>
         <v>1037.6359472124777</v>
       </c>
-      <c r="X30" s="36">
+      <c r="Y30" s="36">
         <f t="shared" si="2"/>
         <v>1048.0123066846024</v>
       </c>
-      <c r="Y30" s="36">
+      <c r="Z30" s="36">
         <f t="shared" si="2"/>
         <v>1058.4924297514485</v>
       </c>
-      <c r="Z30" s="36">
+      <c r="AA30" s="36">
         <f t="shared" si="2"/>
         <v>1069.0773540489631</v>
       </c>
-      <c r="AA30" s="36">
+      <c r="AB30" s="36">
         <f t="shared" si="2"/>
         <v>1079.7681275894527</v>
       </c>
-      <c r="AB30" s="36">
+      <c r="AC30" s="36">
         <f t="shared" si="2"/>
         <v>1090.5658088653472</v>
       </c>
-      <c r="AC30" s="36">
+      <c r="AD30" s="36">
         <f t="shared" si="2"/>
         <v>1101.4714669540008</v>
       </c>
-      <c r="AD30" s="36">
+      <c r="AE30" s="36">
         <f t="shared" si="2"/>
         <v>1112.4861816235409</v>
       </c>
-      <c r="AE30" s="36">
+      <c r="AF30" s="36">
         <f t="shared" si="2"/>
         <v>1123.6110434397763</v>
       </c>
-      <c r="AF30" s="36">
+      <c r="AG30" s="36">
         <f t="shared" si="2"/>
         <v>1134.847153874174</v>
       </c>
-      <c r="AG30" s="36">
+      <c r="AH30" s="36">
         <f t="shared" si="2"/>
         <v>1146.1956254129157</v>
       </c>
-      <c r="AH30" s="36">
+      <c r="AI30" s="36">
         <f t="shared" si="2"/>
         <v>1157.6575816670447</v>
       </c>
-      <c r="AI30" s="36">
+      <c r="AJ30" s="36">
         <f t="shared" si="2"/>
         <v>1169.2341574837151</v>
       </c>
-      <c r="AJ30" s="36">
+      <c r="AK30" s="36">
         <f t="shared" si="2"/>
         <v>1180.9264990585523</v>
       </c>
-      <c r="AK30" s="36">
+      <c r="AL30" s="36">
         <f t="shared" si="2"/>
         <v>1192.7357640491377</v>
       </c>
-      <c r="AL30" s="36">
+      <c r="AM30" s="36">
         <f t="shared" si="2"/>
         <v>1204.6631216896292</v>
       </c>
-      <c r="AM30" s="36">
+      <c r="AN30" s="36">
         <f t="shared" si="2"/>
         <v>1216.7097529065254</v>
       </c>
-      <c r="AN30" s="36">
+      <c r="AO30" s="36">
         <f t="shared" si="2"/>
         <v>1228.8768504355908</v>
       </c>
-      <c r="AO30" s="36">
+      <c r="AP30" s="36">
         <f t="shared" si="2"/>
         <v>1241.1656189399466</v>
       </c>
-      <c r="AP30" s="36">
+      <c r="AQ30" s="36">
         <f t="shared" si="2"/>
         <v>1253.5772751293462</v>
       </c>
-      <c r="AQ30" s="36">
+      <c r="AR30" s="36">
         <f t="shared" si="2"/>
         <v>1266.1130478806397</v>
       </c>
-      <c r="AR30" s="36">
+      <c r="AS30" s="36">
         <f t="shared" si="2"/>
         <v>1278.7741783594461</v>
       </c>
-      <c r="AS30" s="36">
+      <c r="AT30" s="36">
         <f t="shared" si="2"/>
         <v>1291.5619201430407</v>
       </c>
-      <c r="AT30" s="36">
+      <c r="AU30" s="36">
         <f t="shared" si="2"/>
         <v>1304.4775393444711</v>
       </c>
-      <c r="AU30" s="36">
+      <c r="AV30" s="36">
         <f t="shared" si="2"/>
         <v>1317.5223147379158</v>
       </c>
-      <c r="AV30" s="36">
+      <c r="AW30" s="36">
         <f t="shared" si="2"/>
         <v>1330.6975378852951</v>
       </c>
-      <c r="AW30" s="36">
+      <c r="AX30" s="36">
         <f t="shared" si="2"/>
         <v>1344.004513264148</v>
       </c>
-      <c r="AX30" s="36">
-        <f t="shared" ref="AX30:BN30" si="3">$P$30*AW$30</f>
+      <c r="AY30" s="36">
+        <f t="shared" ref="AY30:BO30" si="3">$Q$30*AX$30</f>
         <v>1357.4445583967895</v>
       </c>
-      <c r="AY30" s="36">
+      <c r="AZ30" s="36">
         <f t="shared" si="3"/>
         <v>1371.0190039807574</v>
       </c>
-      <c r="AZ30" s="36">
+      <c r="BA30" s="36">
         <f t="shared" si="3"/>
         <v>1384.729194020565</v>
       </c>
-      <c r="BA30" s="36">
+      <c r="BB30" s="36">
         <f t="shared" si="3"/>
         <v>1398.5764859607707</v>
       </c>
-      <c r="BB30" s="36">
+      <c r="BC30" s="36">
         <f t="shared" si="3"/>
         <v>1412.5622508203785</v>
       </c>
-      <c r="BC30" s="36">
+      <c r="BD30" s="36">
         <f t="shared" si="3"/>
         <v>1426.6878733285823</v>
       </c>
-      <c r="BD30" s="36">
+      <c r="BE30" s="36">
         <f t="shared" si="3"/>
         <v>1440.9547520618682</v>
       </c>
-      <c r="BE30" s="36">
+      <c r="BF30" s="36">
         <f t="shared" si="3"/>
         <v>1455.3642995824869</v>
       </c>
-      <c r="BF30" s="36">
+      <c r="BG30" s="36">
         <f t="shared" si="3"/>
         <v>1469.9179425783118</v>
       </c>
-      <c r="BG30" s="36">
+      <c r="BH30" s="36">
         <f t="shared" si="3"/>
         <v>1484.6171220040949</v>
       </c>
-      <c r="BH30" s="36">
+      <c r="BI30" s="36">
         <f t="shared" si="3"/>
         <v>1499.4632932241359</v>
       </c>
-      <c r="BI30" s="36">
+      <c r="BJ30" s="36">
         <f t="shared" si="3"/>
         <v>1514.4579261563772</v>
       </c>
-      <c r="BJ30" s="36">
+      <c r="BK30" s="36">
         <f t="shared" si="3"/>
         <v>1529.6025054179411</v>
       </c>
-      <c r="BK30" s="36">
+      <c r="BL30" s="36">
         <f t="shared" si="3"/>
         <v>1544.8985304721205</v>
       </c>
-      <c r="BL30" s="36">
+      <c r="BM30" s="36">
         <f t="shared" si="3"/>
         <v>1560.3475157768416</v>
       </c>
-      <c r="BM30" s="36">
+      <c r="BN30" s="36">
         <f t="shared" si="3"/>
         <v>1575.95099093461</v>
       </c>
-      <c r="BN30" s="7">
+      <c r="BO30" s="7">
         <f t="shared" si="3"/>
         <v>1591.7105008439562</v>
       </c>
     </row>
-    <row r="31" spans="2:66" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:67" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G31" s="19"/>
       <c r="H31" s="49"/>
       <c r="M31" s="50"/>
       <c r="N31" s="38"/>
-      <c r="O31" s="39" t="s">
+      <c r="O31" s="38"/>
+      <c r="P31" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="P31" s="72">
+      <c r="Q31" s="72">
         <v>1.0149999999999999</v>
       </c>
-      <c r="Q31" s="73">
+      <c r="R31" s="73">
         <f>F19</f>
         <v>1380</v>
       </c>
-      <c r="R31" s="74">
-        <f t="shared" ref="R31:AW31" si="4">$P$31*Q$31</f>
+      <c r="S31" s="74">
+        <f t="shared" ref="S31:AX31" si="4">$Q$31*R$31</f>
         <v>1400.6999999999998</v>
       </c>
-      <c r="S31" s="74">
+      <c r="T31" s="74">
         <f t="shared" si="4"/>
         <v>1421.7104999999997</v>
       </c>
-      <c r="T31" s="74">
+      <c r="U31" s="74">
         <f t="shared" si="4"/>
         <v>1443.0361574999995</v>
       </c>
-      <c r="U31" s="74">
+      <c r="V31" s="74">
         <f t="shared" si="4"/>
         <v>1464.6816998624993</v>
       </c>
-      <c r="V31" s="74">
+      <c r="W31" s="74">
         <f t="shared" si="4"/>
         <v>1486.6519253604365</v>
       </c>
-      <c r="W31" s="74">
+      <c r="X31" s="74">
         <f t="shared" si="4"/>
         <v>1508.9517042408429</v>
       </c>
-      <c r="X31" s="74">
+      <c r="Y31" s="74">
         <f t="shared" si="4"/>
         <v>1531.5859798044553</v>
       </c>
-      <c r="Y31" s="74">
+      <c r="Z31" s="74">
         <f t="shared" si="4"/>
         <v>1554.5597695015219</v>
       </c>
-      <c r="Z31" s="74">
+      <c r="AA31" s="74">
         <f t="shared" si="4"/>
         <v>1577.8781660440445</v>
       </c>
-      <c r="AA31" s="74">
+      <c r="AB31" s="74">
         <f t="shared" si="4"/>
         <v>1601.546338534705</v>
       </c>
-      <c r="AB31" s="74">
+      <c r="AC31" s="74">
         <f t="shared" si="4"/>
         <v>1625.5695336127253</v>
       </c>
-      <c r="AC31" s="74">
+      <c r="AD31" s="74">
         <f t="shared" si="4"/>
         <v>1649.953076616916</v>
       </c>
-      <c r="AD31" s="74">
+      <c r="AE31" s="74">
         <f t="shared" si="4"/>
         <v>1674.7023727661694</v>
       </c>
-      <c r="AE31" s="74">
+      <c r="AF31" s="74">
         <f t="shared" si="4"/>
         <v>1699.8229083576618</v>
       </c>
-      <c r="AF31" s="74">
+      <c r="AG31" s="74">
         <f t="shared" si="4"/>
         <v>1725.3202519830265</v>
       </c>
-      <c r="AG31" s="74">
+      <c r="AH31" s="74">
         <f t="shared" si="4"/>
         <v>1751.2000557627719</v>
       </c>
-      <c r="AH31" s="74">
+      <c r="AI31" s="74">
         <f t="shared" si="4"/>
         <v>1777.4680565992132</v>
       </c>
-      <c r="AI31" s="74">
+      <c r="AJ31" s="74">
         <f t="shared" si="4"/>
         <v>1804.1300774482013</v>
       </c>
-      <c r="AJ31" s="74">
+      <c r="AK31" s="74">
         <f t="shared" si="4"/>
         <v>1831.1920286099241</v>
       </c>
-      <c r="AK31" s="74">
+      <c r="AL31" s="74">
         <f t="shared" si="4"/>
         <v>1858.6599090390728</v>
       </c>
-      <c r="AL31" s="74">
+      <c r="AM31" s="74">
         <f t="shared" si="4"/>
         <v>1886.5398076746587</v>
       </c>
-      <c r="AM31" s="74">
+      <c r="AN31" s="74">
         <f t="shared" si="4"/>
         <v>1914.8379047897783</v>
       </c>
-      <c r="AN31" s="74">
+      <c r="AO31" s="74">
         <f t="shared" si="4"/>
         <v>1943.5604733616249</v>
       </c>
-      <c r="AO31" s="74">
+      <c r="AP31" s="74">
         <f t="shared" si="4"/>
         <v>1972.713880462049</v>
       </c>
-      <c r="AP31" s="74">
+      <c r="AQ31" s="74">
         <f t="shared" si="4"/>
         <v>2002.3045886689795</v>
       </c>
-      <c r="AQ31" s="74">
+      <c r="AR31" s="74">
         <f t="shared" si="4"/>
         <v>2032.3391574990139</v>
       </c>
-      <c r="AR31" s="74">
+      <c r="AS31" s="74">
         <f t="shared" si="4"/>
         <v>2062.8242448614988</v>
       </c>
-      <c r="AS31" s="74">
+      <c r="AT31" s="74">
         <f t="shared" si="4"/>
         <v>2093.7666085344208</v>
       </c>
-      <c r="AT31" s="74">
+      <c r="AU31" s="74">
         <f t="shared" si="4"/>
         <v>2125.1731076624369</v>
       </c>
-      <c r="AU31" s="74">
+      <c r="AV31" s="74">
         <f t="shared" si="4"/>
         <v>2157.0507042773734</v>
       </c>
-      <c r="AV31" s="74">
+      <c r="AW31" s="74">
         <f t="shared" si="4"/>
         <v>2189.4064648415338</v>
       </c>
-      <c r="AW31" s="74">
+      <c r="AX31" s="74">
         <f t="shared" si="4"/>
         <v>2222.2475618141566</v>
       </c>
-      <c r="AX31" s="74">
-        <f t="shared" ref="AX31:BN31" si="5">$P$31*AW$31</f>
+      <c r="AY31" s="74">
+        <f t="shared" ref="AY31:BO31" si="5">$Q$31*AX$31</f>
         <v>2255.5812752413685</v>
       </c>
-      <c r="AY31" s="74">
+      <c r="AZ31" s="74">
         <f t="shared" si="5"/>
         <v>2289.414994369989</v>
       </c>
-      <c r="AZ31" s="74">
+      <c r="BA31" s="74">
         <f t="shared" si="5"/>
         <v>2323.7562192855385</v>
       </c>
-      <c r="BA31" s="74">
+      <c r="BB31" s="74">
         <f t="shared" si="5"/>
         <v>2358.6125625748214</v>
       </c>
-      <c r="BB31" s="74">
+      <c r="BC31" s="74">
         <f t="shared" si="5"/>
         <v>2393.9917510134433</v>
       </c>
-      <c r="BC31" s="74">
+      <c r="BD31" s="74">
         <f t="shared" si="5"/>
         <v>2429.9016272786448</v>
       </c>
-      <c r="BD31" s="74">
+      <c r="BE31" s="74">
         <f t="shared" si="5"/>
         <v>2466.3501516878241</v>
       </c>
-      <c r="BE31" s="74">
+      <c r="BF31" s="74">
         <f t="shared" si="5"/>
         <v>2503.3454039631411</v>
       </c>
-      <c r="BF31" s="74">
+      <c r="BG31" s="74">
         <f t="shared" si="5"/>
         <v>2540.895585022588</v>
       </c>
-      <c r="BG31" s="74">
+      <c r="BH31" s="74">
         <f t="shared" si="5"/>
         <v>2579.0090187979267</v>
       </c>
-      <c r="BH31" s="74">
+      <c r="BI31" s="74">
         <f t="shared" si="5"/>
         <v>2617.6941540798953</v>
       </c>
-      <c r="BI31" s="74">
+      <c r="BJ31" s="74">
         <f t="shared" si="5"/>
         <v>2656.9595663910936</v>
       </c>
-      <c r="BJ31" s="74">
+      <c r="BK31" s="74">
         <f t="shared" si="5"/>
         <v>2696.8139598869598</v>
       </c>
-      <c r="BK31" s="74">
+      <c r="BL31" s="74">
         <f t="shared" si="5"/>
         <v>2737.2661692852639</v>
       </c>
-      <c r="BL31" s="74">
+      <c r="BM31" s="74">
         <f t="shared" si="5"/>
         <v>2778.3251618245426</v>
       </c>
-      <c r="BM31" s="74">
+      <c r="BN31" s="74">
         <f t="shared" si="5"/>
         <v>2820.0000392519105</v>
       </c>
-      <c r="BN31" s="22">
+      <c r="BO31" s="22">
         <f t="shared" si="5"/>
         <v>2862.3000398406889</v>
       </c>
     </row>
-    <row r="32" spans="2:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:67" ht="15" x14ac:dyDescent="0.2">
       <c r="E32" s="2" t="s">
         <v>72</v>
       </c>
@@ -5872,212 +6050,213 @@
       <c r="H32" s="49"/>
       <c r="M32" s="50"/>
       <c r="N32" s="38"/>
-      <c r="O32" s="75" t="s">
+      <c r="O32" s="38"/>
+      <c r="P32" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="77">
-        <f t="shared" ref="Q32:AV32" si="6">Q$29-Q$30-Q$31</f>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="77">
+        <f t="shared" ref="R32:AW32" si="6">R$29-R$30-R$31</f>
         <v>7227.6350000000002</v>
       </c>
-      <c r="R32" s="74">
+      <c r="S32" s="74">
         <f t="shared" si="6"/>
         <v>7436.7883749999992</v>
       </c>
-      <c r="S32" s="74">
+      <c r="T32" s="74">
         <f t="shared" si="6"/>
         <v>7651.5242093749985</v>
       </c>
-      <c r="T32" s="74">
+      <c r="U32" s="74">
         <f t="shared" si="6"/>
         <v>7871.9866358593727</v>
       </c>
-      <c r="U32" s="74">
+      <c r="V32" s="74">
         <f t="shared" si="6"/>
         <v>8098.3234517433566</v>
       </c>
-      <c r="V32" s="74">
+      <c r="W32" s="74">
         <f t="shared" si="6"/>
         <v>8330.6862113321895</v>
       </c>
-      <c r="W32" s="74">
+      <c r="X32" s="74">
         <f t="shared" si="6"/>
         <v>8569.2303207286877</v>
       </c>
-      <c r="X32" s="74">
+      <c r="Y32" s="74">
         <f t="shared" si="6"/>
         <v>8814.1151349975007</v>
       </c>
-      <c r="Y32" s="74">
+      <c r="Z32" s="74">
         <f t="shared" si="6"/>
         <v>9065.5040577707514</v>
       </c>
-      <c r="Z32" s="74">
+      <c r="AA32" s="74">
         <f t="shared" si="6"/>
         <v>9323.5646433563052</v>
       </c>
-      <c r="AA32" s="74">
+      <c r="AB32" s="74">
         <f t="shared" si="6"/>
         <v>9588.4687014113879</v>
       </c>
-      <c r="AB32" s="74">
+      <c r="AC32" s="74">
         <f t="shared" si="6"/>
         <v>9860.3924042458602</v>
       </c>
-      <c r="AC32" s="74">
+      <c r="AD32" s="74">
         <f t="shared" si="6"/>
         <v>10139.516396821113</v>
       </c>
-      <c r="AD32" s="74">
+      <c r="AE32" s="74">
         <f t="shared" si="6"/>
         <v>10426.025909512118</v>
       </c>
-      <c r="AE32" s="74">
+      <c r="AF32" s="74">
         <f t="shared" si="6"/>
         <v>10720.110873701933</v>
       </c>
-      <c r="AF32" s="74">
+      <c r="AG32" s="74">
         <f t="shared" si="6"/>
         <v>11021.966040279654</v>
       </c>
-      <c r="AG32" s="74">
+      <c r="AH32" s="74">
         <f t="shared" si="6"/>
         <v>11331.791101114586</v>
       </c>
-      <c r="AH32" s="74">
+      <c r="AI32" s="74">
         <f t="shared" si="6"/>
         <v>11649.790813581272</v>
       </c>
-      <c r="AI32" s="74">
+      <c r="AJ32" s="74">
         <f t="shared" si="6"/>
         <v>11976.1751282118</v>
       </c>
-      <c r="AJ32" s="74">
+      <c r="AK32" s="74">
         <f t="shared" si="6"/>
         <v>12311.15931955383</v>
       </c>
-      <c r="AK32" s="74">
+      <c r="AL32" s="74">
         <f t="shared" si="6"/>
         <v>12654.964120314653</v>
       </c>
-      <c r="AL32" s="74">
+      <c r="AM32" s="74">
         <f t="shared" si="6"/>
         <v>13007.815858873646</v>
       </c>
-      <c r="AM32" s="74">
+      <c r="AN32" s="74">
         <f t="shared" si="6"/>
         <v>13369.946600247576</v>
       </c>
-      <c r="AN32" s="74">
+      <c r="AO32" s="74">
         <f t="shared" si="6"/>
         <v>13741.59429059526</v>
       </c>
-      <c r="AO32" s="74">
+      <c r="AP32" s="74">
         <f t="shared" si="6"/>
         <v>14123.002905350291</v>
       </c>
-      <c r="AP32" s="74">
+      <c r="AQ32" s="74">
         <f t="shared" si="6"/>
         <v>14514.422601072765</v>
       </c>
-      <c r="AQ32" s="74">
+      <c r="AR32" s="74">
         <f t="shared" si="6"/>
         <v>14916.109871113213</v>
       </c>
-      <c r="AR32" s="74">
+      <c r="AS32" s="74">
         <f t="shared" si="6"/>
         <v>15328.327705184245</v>
       </c>
-      <c r="AS32" s="74">
+      <c r="AT32" s="74">
         <f t="shared" si="6"/>
         <v>15751.345752937854</v>
       </c>
-      <c r="AT32" s="74">
+      <c r="AU32" s="74">
         <f t="shared" si="6"/>
         <v>16185.440491648789</v>
       </c>
-      <c r="AU32" s="74">
+      <c r="AV32" s="74">
         <f t="shared" si="6"/>
         <v>16630.895398106804</v>
       </c>
-      <c r="AV32" s="74">
+      <c r="AW32" s="74">
         <f t="shared" si="6"/>
         <v>17088.001124823313</v>
       </c>
-      <c r="AW32" s="74">
-        <f t="shared" ref="AW32:BN32" si="7">AW$29-AW$30-AW$31</f>
+      <c r="AX32" s="74">
+        <f t="shared" ref="AX32:BO32" si="7">AX$29-AX$30-AX$31</f>
         <v>17557.055680660585</v>
       </c>
-      <c r="AX32" s="74">
+      <c r="AY32" s="74">
         <f t="shared" si="7"/>
         <v>18038.364615994204</v>
       </c>
-      <c r="AY32" s="74">
+      <c r="AZ32" s="74">
         <f t="shared" si="7"/>
         <v>18532.241212522425</v>
       </c>
-      <c r="AZ32" s="74">
+      <c r="BA32" s="74">
         <f t="shared" si="7"/>
         <v>19039.006677838894</v>
       </c>
-      <c r="BA32" s="74">
+      <c r="BB32" s="74">
         <f t="shared" si="7"/>
         <v>19558.990344888032</v>
       </c>
-      <c r="BB32" s="74">
+      <c r="BC32" s="74">
         <f t="shared" si="7"/>
         <v>20092.529876425389</v>
       </c>
-      <c r="BC32" s="74">
+      <c r="BD32" s="74">
         <f t="shared" si="7"/>
         <v>20639.971474608465</v>
       </c>
-      <c r="BD32" s="74">
+      <c r="BE32" s="74">
         <f t="shared" si="7"/>
         <v>21201.670095846384</v>
       </c>
-      <c r="BE32" s="74">
+      <c r="BF32" s="74">
         <f t="shared" si="7"/>
         <v>21777.989671040348</v>
       </c>
-      <c r="BF32" s="74">
+      <c r="BG32" s="74">
         <f t="shared" si="7"/>
         <v>22369.303331349725</v>
       </c>
-      <c r="BG32" s="74">
+      <c r="BH32" s="74">
         <f t="shared" si="7"/>
         <v>22975.993639622364</v>
       </c>
-      <c r="BH32" s="74">
+      <c r="BI32" s="74">
         <f t="shared" si="7"/>
         <v>23598.452827630961</v>
       </c>
-      <c r="BI32" s="74">
+      <c r="BJ32" s="74">
         <f t="shared" si="7"/>
         <v>24237.083039260891</v>
       </c>
-      <c r="BJ32" s="74">
+      <c r="BK32" s="74">
         <f t="shared" si="7"/>
         <v>24892.296579798669</v>
       </c>
-      <c r="BK32" s="74">
+      <c r="BL32" s="74">
         <f t="shared" si="7"/>
         <v>25564.516171473773</v>
       </c>
-      <c r="BL32" s="74">
+      <c r="BM32" s="74">
         <f t="shared" si="7"/>
         <v>26254.175215410552</v>
       </c>
-      <c r="BM32" s="74">
+      <c r="BN32" s="74">
         <f t="shared" si="7"/>
         <v>26961.71806015071</v>
       </c>
-      <c r="BN32" s="22">
+      <c r="BO32" s="22">
         <f t="shared" si="7"/>
         <v>27687.600276911013</v>
       </c>
     </row>
-    <row r="33" spans="5:66" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:67" x14ac:dyDescent="0.2">
       <c r="E33" s="8" t="s">
         <v>74</v>
       </c>
@@ -6087,212 +6266,212 @@
       </c>
       <c r="H33" s="49"/>
       <c r="M33" s="50"/>
-      <c r="O33" s="39" t="s">
+      <c r="P33" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="77">
-        <f>Q$32/12</f>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="77">
+        <f>R$32/12</f>
         <v>602.30291666666665</v>
       </c>
-      <c r="R33" s="74">
-        <f t="shared" ref="R33:BN33" si="8">R$32/12</f>
+      <c r="S33" s="74">
+        <f t="shared" ref="S33:BO33" si="8">S$32/12</f>
         <v>619.73236458333326</v>
       </c>
-      <c r="S33" s="74">
+      <c r="T33" s="74">
         <f t="shared" si="8"/>
         <v>637.6270174479165</v>
       </c>
-      <c r="T33" s="74">
+      <c r="U33" s="74">
         <f t="shared" si="8"/>
         <v>655.99888632161435</v>
       </c>
-      <c r="U33" s="74">
+      <c r="V33" s="74">
         <f t="shared" si="8"/>
         <v>674.86028764527975</v>
       </c>
-      <c r="V33" s="74">
+      <c r="W33" s="74">
         <f t="shared" si="8"/>
         <v>694.22385094434912</v>
       </c>
-      <c r="W33" s="74">
+      <c r="X33" s="74">
         <f t="shared" si="8"/>
         <v>714.10252672739068</v>
       </c>
-      <c r="X33" s="74">
+      <c r="Y33" s="74">
         <f t="shared" si="8"/>
         <v>734.50959458312502</v>
       </c>
-      <c r="Y33" s="74">
+      <c r="Z33" s="74">
         <f t="shared" si="8"/>
         <v>755.45867148089599</v>
       </c>
-      <c r="Z33" s="74">
+      <c r="AA33" s="74">
         <f t="shared" si="8"/>
         <v>776.9637202796921</v>
       </c>
-      <c r="AA33" s="74">
+      <c r="AB33" s="74">
         <f t="shared" si="8"/>
         <v>799.03905845094903</v>
       </c>
-      <c r="AB33" s="74">
+      <c r="AC33" s="74">
         <f t="shared" si="8"/>
         <v>821.69936702048835</v>
       </c>
-      <c r="AC33" s="74">
+      <c r="AD33" s="74">
         <f t="shared" si="8"/>
         <v>844.95969973509273</v>
       </c>
-      <c r="AD33" s="74">
+      <c r="AE33" s="74">
         <f t="shared" si="8"/>
         <v>868.83549245934319</v>
       </c>
-      <c r="AE33" s="74">
+      <c r="AF33" s="74">
         <f t="shared" si="8"/>
         <v>893.34257280849442</v>
       </c>
-      <c r="AF33" s="74">
+      <c r="AG33" s="74">
         <f t="shared" si="8"/>
         <v>918.49717002330453</v>
       </c>
-      <c r="AG33" s="74">
+      <c r="AH33" s="74">
         <f t="shared" si="8"/>
         <v>944.31592509288214</v>
       </c>
-      <c r="AH33" s="74">
+      <c r="AI33" s="74">
         <f t="shared" si="8"/>
         <v>970.81590113177265</v>
       </c>
-      <c r="AI33" s="74">
+      <c r="AJ33" s="74">
         <f t="shared" si="8"/>
         <v>998.01459401764998</v>
       </c>
-      <c r="AJ33" s="74">
+      <c r="AK33" s="74">
         <f t="shared" si="8"/>
         <v>1025.9299432961525</v>
       </c>
-      <c r="AK33" s="74">
+      <c r="AL33" s="74">
         <f t="shared" si="8"/>
         <v>1054.5803433595545</v>
       </c>
-      <c r="AL33" s="74">
+      <c r="AM33" s="74">
         <f t="shared" si="8"/>
         <v>1083.9846549061372</v>
       </c>
-      <c r="AM33" s="74">
+      <c r="AN33" s="74">
         <f t="shared" si="8"/>
         <v>1114.162216687298</v>
       </c>
-      <c r="AN33" s="74">
+      <c r="AO33" s="74">
         <f t="shared" si="8"/>
         <v>1145.132857549605</v>
       </c>
-      <c r="AO33" s="74">
+      <c r="AP33" s="74">
         <f t="shared" si="8"/>
         <v>1176.9169087791909</v>
       </c>
-      <c r="AP33" s="74">
+      <c r="AQ33" s="74">
         <f t="shared" si="8"/>
         <v>1209.5352167560638</v>
       </c>
-      <c r="AQ33" s="74">
+      <c r="AR33" s="74">
         <f t="shared" si="8"/>
         <v>1243.0091559261011</v>
       </c>
-      <c r="AR33" s="74">
+      <c r="AS33" s="74">
         <f t="shared" si="8"/>
         <v>1277.3606420986871</v>
       </c>
-      <c r="AS33" s="74">
+      <c r="AT33" s="74">
         <f t="shared" si="8"/>
         <v>1312.6121460781544</v>
       </c>
-      <c r="AT33" s="74">
+      <c r="AU33" s="74">
         <f t="shared" si="8"/>
         <v>1348.7867076373991</v>
       </c>
-      <c r="AU33" s="74">
+      <c r="AV33" s="74">
         <f t="shared" si="8"/>
         <v>1385.9079498422336</v>
       </c>
-      <c r="AV33" s="74">
+      <c r="AW33" s="74">
         <f t="shared" si="8"/>
         <v>1424.0000937352761</v>
       </c>
-      <c r="AW33" s="74">
+      <c r="AX33" s="74">
         <f t="shared" si="8"/>
         <v>1463.0879733883821</v>
       </c>
-      <c r="AX33" s="74">
+      <c r="AY33" s="74">
         <f t="shared" si="8"/>
         <v>1503.1970513328504</v>
       </c>
-      <c r="AY33" s="74">
+      <c r="AZ33" s="74">
         <f t="shared" si="8"/>
         <v>1544.3534343768688</v>
       </c>
-      <c r="AZ33" s="74">
+      <c r="BA33" s="74">
         <f t="shared" si="8"/>
         <v>1586.5838898199079</v>
       </c>
-      <c r="BA33" s="74">
+      <c r="BB33" s="74">
         <f t="shared" si="8"/>
         <v>1629.9158620740027</v>
       </c>
-      <c r="BB33" s="74">
+      <c r="BC33" s="74">
         <f t="shared" si="8"/>
         <v>1674.3774897021158</v>
       </c>
-      <c r="BC33" s="74">
+      <c r="BD33" s="74">
         <f t="shared" si="8"/>
         <v>1719.9976228840387</v>
       </c>
-      <c r="BD33" s="74">
+      <c r="BE33" s="74">
         <f t="shared" si="8"/>
         <v>1766.805841320532</v>
       </c>
-      <c r="BE33" s="74">
+      <c r="BF33" s="74">
         <f t="shared" si="8"/>
         <v>1814.8324725866958</v>
       </c>
-      <c r="BF33" s="74">
+      <c r="BG33" s="74">
         <f t="shared" si="8"/>
         <v>1864.1086109458104</v>
       </c>
-      <c r="BG33" s="74">
+      <c r="BH33" s="74">
         <f t="shared" si="8"/>
         <v>1914.6661366351971</v>
       </c>
-      <c r="BH33" s="74">
+      <c r="BI33" s="74">
         <f t="shared" si="8"/>
         <v>1966.5377356359134</v>
       </c>
-      <c r="BI33" s="74">
+      <c r="BJ33" s="74">
         <f t="shared" si="8"/>
         <v>2019.7569199384077</v>
       </c>
-      <c r="BJ33" s="74">
+      <c r="BK33" s="74">
         <f t="shared" si="8"/>
         <v>2074.3580483165556</v>
       </c>
-      <c r="BK33" s="74">
+      <c r="BL33" s="74">
         <f t="shared" si="8"/>
         <v>2130.3763476228146</v>
       </c>
-      <c r="BL33" s="74">
+      <c r="BM33" s="74">
         <f t="shared" si="8"/>
         <v>2187.8479346175459</v>
       </c>
-      <c r="BM33" s="74">
+      <c r="BN33" s="74">
         <f t="shared" si="8"/>
         <v>2246.8098383458923</v>
       </c>
-      <c r="BN33" s="22">
+      <c r="BO33" s="22">
         <f t="shared" si="8"/>
         <v>2307.3000230759176</v>
       </c>
     </row>
-    <row r="34" spans="5:66" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:67" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E34" s="8" t="s">
         <v>76</v>
       </c>
@@ -6302,11 +6481,11 @@
       </c>
       <c r="H34" s="49"/>
       <c r="M34" s="50"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="79"/>
-      <c r="BN34" s="50"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="79"/>
+      <c r="BO34" s="50"/>
     </row>
-    <row r="35" spans="5:66" ht="16" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:67" ht="16" x14ac:dyDescent="0.25">
       <c r="E35" s="8" t="s">
         <v>77</v>
       </c>
@@ -6316,15 +6495,14 @@
       </c>
       <c r="H35" s="49"/>
       <c r="M35" s="50"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="79"/>
-      <c r="T35" s="28"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="79"/>
       <c r="U35" s="28"/>
       <c r="V35" s="28"/>
-      <c r="AK35" s="80" t="s">
+      <c r="W35" s="28"/>
+      <c r="AL35" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="AL35" s="81"/>
       <c r="AM35" s="81"/>
       <c r="AN35" s="81"/>
       <c r="AO35" s="81"/>
@@ -6335,10 +6513,11 @@
       <c r="AT35" s="81"/>
       <c r="AU35" s="81"/>
       <c r="AV35" s="81"/>
-      <c r="AW35" s="82"/>
-      <c r="BN35" s="50"/>
+      <c r="AW35" s="81"/>
+      <c r="AX35" s="82"/>
+      <c r="BO35" s="50"/>
     </row>
-    <row r="36" spans="5:66" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E36" s="15" t="s">
         <v>79</v>
       </c>
@@ -6352,838 +6531,837 @@
       <c r="K36" s="85"/>
       <c r="L36" s="85"/>
       <c r="M36" s="86"/>
-      <c r="O36" s="39" t="s">
+      <c r="P36" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="P36" s="78"/>
-      <c r="Q36" s="77">
+      <c r="Q36" s="78"/>
+      <c r="R36" s="77">
         <f>F7*C12</f>
         <v>5605</v>
       </c>
-      <c r="R36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:Q37))*$C$12))</f>
+      <c r="S36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:R37))*$C$12))</f>
         <v>5548.95</v>
       </c>
-      <c r="S36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:R37))*$C$12))</f>
+      <c r="T36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:S37))*$C$12))</f>
         <v>5487.8555000000006</v>
       </c>
-      <c r="T36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:S37))*$C$12))</f>
+      <c r="U36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:T37))*$C$12))</f>
         <v>5421.2624949999999</v>
       </c>
-      <c r="U36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:T37))*$C$12))</f>
+      <c r="V36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:U37))*$C$12))</f>
         <v>5348.6761195500003</v>
       </c>
-      <c r="V36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:U37))*$C$12))</f>
+      <c r="W36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:V37))*$C$12))</f>
         <v>5269.5569703094998</v>
       </c>
-      <c r="W36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:V37))*$C$12))</f>
+      <c r="X36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:W37))*$C$12))</f>
         <v>5183.3170976373558</v>
       </c>
-      <c r="X36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:W37))*$C$12))</f>
+      <c r="Y36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:X37))*$C$12))</f>
         <v>5089.315636424717</v>
       </c>
-      <c r="Y36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:X37))*$C$12))</f>
+      <c r="Z36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:Y37))*$C$12))</f>
         <v>4986.8540437029415</v>
       </c>
-      <c r="Z36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:Y37))*$C$12))</f>
+      <c r="AA36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:Z37))*$C$12))</f>
         <v>4875.1709076362058</v>
       </c>
-      <c r="AA36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:Z37))*$C$12))</f>
+      <c r="AB36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AA37))*$C$12))</f>
         <v>4753.4362893234638</v>
       </c>
-      <c r="AB36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AA37))*$C$12))</f>
+      <c r="AC36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AB37))*$C$12))</f>
         <v>4620.7455553625769</v>
       </c>
-      <c r="AC36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AB37))*$C$12))</f>
+      <c r="AD36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AC37))*$C$12))</f>
         <v>4476.1126553452086</v>
       </c>
-      <c r="AD36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AC37))*$C$12))</f>
+      <c r="AE36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AD37))*$C$12))</f>
         <v>4318.4627943262767</v>
       </c>
-      <c r="AE36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AD37))*$C$12))</f>
+      <c r="AF36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AE37))*$C$12))</f>
         <v>4146.6244458156416</v>
       </c>
-      <c r="AF36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AE37))*$C$12))</f>
+      <c r="AG36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AF37))*$C$12))</f>
         <v>3959.320645939049</v>
       </c>
-      <c r="AG36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AF37))*$C$12))</f>
+      <c r="AH36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AG37))*$C$12))</f>
         <v>3755.1595040735633</v>
       </c>
-      <c r="AH36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AG37))*$C$12))</f>
+      <c r="AI36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AH37))*$C$12))</f>
         <v>3532.6238594401839</v>
       </c>
-      <c r="AI36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AH37))*$C$12))</f>
+      <c r="AJ36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AI37))*$C$12))</f>
         <v>3290.0600067898004</v>
       </c>
-      <c r="AJ36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AI37))*$C$12))</f>
+      <c r="AK36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AJ37))*$C$12))</f>
         <v>3025.665407400882</v>
       </c>
-      <c r="AK36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AJ37))*$C$12))</f>
+      <c r="AL36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AK37))*$C$12))</f>
         <v>2737.4752940669614</v>
       </c>
-      <c r="AL36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AK37))*$C$12))</f>
+      <c r="AM36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AL37))*$C$12))</f>
         <v>2423.3480705329871</v>
       </c>
-      <c r="AM36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AL37))*$C$12))</f>
+      <c r="AN36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AM37))*$C$12))</f>
         <v>2080.9493968809556</v>
       </c>
-      <c r="AN36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AM37))*$C$12))</f>
+      <c r="AO36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AN37))*$C$12))</f>
         <v>1707.7348426002418</v>
       </c>
-      <c r="AO36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AN37))*$C$12))</f>
+      <c r="AP36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AO37))*$C$12))</f>
         <v>1300.9309784342636</v>
       </c>
-      <c r="AP36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AO37))*$C$12))</f>
+      <c r="AQ36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AP37))*$C$12))</f>
         <v>857.51476649334666</v>
       </c>
-      <c r="AQ36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AP37))*$C$12))</f>
+      <c r="AR36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AQ37))*$C$12))</f>
         <v>374.19109547774764</v>
       </c>
-      <c r="AR36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AQ37))*$C$12))</f>
+      <c r="AS36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AR37))*$C$12))</f>
         <v>0</v>
       </c>
-      <c r="AS36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AR37))*$C$12))</f>
+      <c r="AT36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AS37))*$C$12))</f>
         <v>0</v>
       </c>
-      <c r="AT36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AS37))*$C$12))</f>
+      <c r="AU36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AT37))*$C$12))</f>
         <v>0</v>
       </c>
-      <c r="AU36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AT37))*$C$12))</f>
+      <c r="AV36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AU37))*$C$12))</f>
         <v>0</v>
       </c>
-      <c r="AV36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AU37))*$C$12))</f>
+      <c r="AW36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AV37))*$C$12))</f>
         <v>0</v>
       </c>
-      <c r="AW36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AV37))*$C$12))</f>
+      <c r="AX36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AW37))*$C$12))</f>
         <v>0</v>
       </c>
-      <c r="AX36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AW37))*$C$12))</f>
+      <c r="AY36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AX37))*$C$12))</f>
         <v>0</v>
       </c>
-      <c r="AY36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AX37))*$C$12))</f>
+      <c r="AZ36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AY37))*$C$12))</f>
         <v>0</v>
       </c>
-      <c r="AZ36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AY37))*$C$12))</f>
+      <c r="BA36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:AZ37))*$C$12))</f>
         <v>0</v>
       </c>
-      <c r="BA36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:AZ37))*$C$12))</f>
+      <c r="BB36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:BA37))*$C$12))</f>
         <v>0</v>
       </c>
-      <c r="BB36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:BA37))*$C$12))</f>
+      <c r="BC36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:BB37))*$C$12))</f>
         <v>0</v>
       </c>
-      <c r="BC36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:BB37))*$C$12))</f>
+      <c r="BD36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:BC37))*$C$12))</f>
         <v>0</v>
       </c>
-      <c r="BD36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:BC37))*$C$12))</f>
+      <c r="BE36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:BD37))*$C$12))</f>
         <v>0</v>
       </c>
-      <c r="BE36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:BD37))*$C$12))</f>
+      <c r="BF36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:BE37))*$C$12))</f>
         <v>0</v>
       </c>
-      <c r="BF36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:BE37))*$C$12))</f>
+      <c r="BG36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:BF37))*$C$12))</f>
         <v>0</v>
       </c>
-      <c r="BG36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:BF37))*$C$12))</f>
+      <c r="BH36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:BG37))*$C$12))</f>
         <v>0</v>
       </c>
-      <c r="BH36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:BG37))*$C$12))</f>
+      <c r="BI36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:BH37))*$C$12))</f>
         <v>0</v>
       </c>
-      <c r="BI36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:BH37))*$C$12))</f>
+      <c r="BJ36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:BI37))*$C$12))</f>
         <v>0</v>
       </c>
-      <c r="BJ36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:BI37))*$C$12))</f>
+      <c r="BK36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:BJ37))*$C$12))</f>
         <v>0</v>
       </c>
-      <c r="BK36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:BJ37))*$C$12))</f>
+      <c r="BL36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:BK37))*$C$12))</f>
         <v>0</v>
       </c>
-      <c r="BL36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:BK37))*$C$12))</f>
+      <c r="BM36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:BL37))*$C$12))</f>
         <v>0</v>
       </c>
-      <c r="BM36" s="74">
-        <f>MAX(0,(($F$7-SUM($Q$37:BL37))*$C$12))</f>
+      <c r="BN36" s="74">
+        <f>MAX(0,(($F$7-SUM($R$37:BM37))*$C$12))</f>
         <v>0</v>
       </c>
-      <c r="BN36" s="22">
-        <f>MAX(0,(($F$7-SUM($Q$37:BM37))*$C$12))</f>
+      <c r="BO36" s="22">
+        <f>MAX(0,(($F$7-SUM($R$37:BN37))*$C$12))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="5:66" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:67" ht="15" x14ac:dyDescent="0.2">
       <c r="J37" s="38"/>
-      <c r="O37" s="39" t="s">
+      <c r="P37" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="P37" s="72">
+      <c r="Q37" s="72">
         <v>1.0900000000000001</v>
       </c>
-      <c r="Q37" s="77">
+      <c r="R37" s="77">
         <f>F7*C13</f>
         <v>1180</v>
       </c>
-      <c r="R37" s="74">
-        <f t="shared" ref="R37:AW37" si="9">Q$37*$P$37</f>
+      <c r="S37" s="74">
+        <f t="shared" ref="S37:AX37" si="9">R$37*$Q$37</f>
         <v>1286.2</v>
       </c>
-      <c r="S37" s="74">
+      <c r="T37" s="74">
         <f t="shared" si="9"/>
         <v>1401.9580000000001</v>
       </c>
-      <c r="T37" s="74">
+      <c r="U37" s="74">
         <f t="shared" si="9"/>
         <v>1528.1342200000001</v>
       </c>
-      <c r="U37" s="74">
+      <c r="V37" s="74">
         <f t="shared" si="9"/>
         <v>1665.6662998000004</v>
       </c>
-      <c r="V37" s="74">
+      <c r="W37" s="74">
         <f t="shared" si="9"/>
         <v>1815.5762667820006</v>
       </c>
-      <c r="W37" s="74">
+      <c r="X37" s="74">
         <f t="shared" si="9"/>
         <v>1978.9781307923809</v>
       </c>
-      <c r="X37" s="74">
+      <c r="Y37" s="74">
         <f t="shared" si="9"/>
         <v>2157.0861625636953</v>
       </c>
-      <c r="Y37" s="74">
+      <c r="Z37" s="74">
         <f t="shared" si="9"/>
         <v>2351.2239171944279</v>
       </c>
-      <c r="Z37" s="74">
+      <c r="AA37" s="74">
         <f t="shared" si="9"/>
         <v>2562.8340697419267</v>
       </c>
-      <c r="AA37" s="74">
+      <c r="AB37" s="74">
         <f t="shared" si="9"/>
         <v>2793.4891360187003</v>
       </c>
-      <c r="AB37" s="74">
+      <c r="AC37" s="74">
         <f t="shared" si="9"/>
         <v>3044.9031582603834</v>
       </c>
-      <c r="AC37" s="74">
+      <c r="AD37" s="74">
         <f t="shared" si="9"/>
         <v>3318.9444425038182</v>
       </c>
-      <c r="AD37" s="74">
+      <c r="AE37" s="74">
         <f t="shared" si="9"/>
         <v>3617.649442329162</v>
       </c>
-      <c r="AE37" s="74">
+      <c r="AF37" s="74">
         <f t="shared" si="9"/>
         <v>3943.2378921387867</v>
       </c>
-      <c r="AF37" s="74">
+      <c r="AG37" s="74">
         <f t="shared" si="9"/>
         <v>4298.1293024312781</v>
       </c>
-      <c r="AG37" s="74">
+      <c r="AH37" s="74">
         <f t="shared" si="9"/>
         <v>4684.9609396500937</v>
       </c>
-      <c r="AH37" s="74">
+      <c r="AI37" s="74">
         <f t="shared" si="9"/>
         <v>5106.6074242186023</v>
       </c>
-      <c r="AI37" s="74">
+      <c r="AJ37" s="74">
         <f t="shared" si="9"/>
         <v>5566.2020923982773</v>
       </c>
-      <c r="AJ37" s="74">
+      <c r="AK37" s="74">
         <f t="shared" si="9"/>
         <v>6067.1602807141226</v>
       </c>
-      <c r="AK37" s="74">
+      <c r="AL37" s="74">
         <f t="shared" si="9"/>
         <v>6613.2047059783945</v>
       </c>
-      <c r="AL37" s="74">
+      <c r="AM37" s="74">
         <f t="shared" si="9"/>
         <v>7208.3931295164502</v>
       </c>
-      <c r="AM37" s="74">
+      <c r="AN37" s="74">
         <f t="shared" si="9"/>
         <v>7857.1485111729316</v>
       </c>
-      <c r="AN37" s="74">
+      <c r="AO37" s="74">
         <f t="shared" si="9"/>
         <v>8564.2918771784953</v>
       </c>
-      <c r="AO37" s="74">
+      <c r="AP37" s="74">
         <f t="shared" si="9"/>
         <v>9335.0781461245606</v>
       </c>
-      <c r="AP37" s="74">
+      <c r="AQ37" s="74">
         <f t="shared" si="9"/>
         <v>10175.235179275773</v>
       </c>
-      <c r="AQ37" s="74">
+      <c r="AR37" s="74">
         <f t="shared" si="9"/>
         <v>11091.006345410593</v>
       </c>
-      <c r="AR37" s="74">
+      <c r="AS37" s="74">
         <f t="shared" si="9"/>
         <v>12089.196916497547</v>
       </c>
-      <c r="AS37" s="74">
+      <c r="AT37" s="74">
         <f t="shared" si="9"/>
         <v>13177.224638982327</v>
       </c>
-      <c r="AT37" s="74">
+      <c r="AU37" s="74">
         <f t="shared" si="9"/>
         <v>14363.174856490738</v>
       </c>
-      <c r="AU37" s="74">
+      <c r="AV37" s="74">
         <f t="shared" si="9"/>
         <v>15655.860593574906</v>
       </c>
-      <c r="AV37" s="74">
+      <c r="AW37" s="74">
         <f t="shared" si="9"/>
         <v>17064.88804699665</v>
       </c>
-      <c r="AW37" s="74">
+      <c r="AX37" s="74">
         <f t="shared" si="9"/>
         <v>18600.727971226348</v>
       </c>
-      <c r="AX37" s="74">
-        <f t="shared" ref="AX37:BN37" si="10">AW$37*$P$37</f>
+      <c r="AY37" s="74">
+        <f t="shared" ref="AY37:BO37" si="10">AX$37*$Q$37</f>
         <v>20274.793488636722</v>
       </c>
-      <c r="AY37" s="74">
+      <c r="AZ37" s="74">
         <f t="shared" si="10"/>
         <v>22099.52490261403</v>
       </c>
-      <c r="AZ37" s="74">
+      <c r="BA37" s="74">
         <f t="shared" si="10"/>
         <v>24088.482143849295</v>
       </c>
-      <c r="BA37" s="74">
+      <c r="BB37" s="74">
         <f t="shared" si="10"/>
         <v>26256.445536795734</v>
       </c>
-      <c r="BB37" s="74">
+      <c r="BC37" s="74">
         <f t="shared" si="10"/>
         <v>28619.525635107351</v>
       </c>
-      <c r="BC37" s="74">
+      <c r="BD37" s="74">
         <f t="shared" si="10"/>
         <v>31195.282942267015</v>
       </c>
-      <c r="BD37" s="74">
+      <c r="BE37" s="74">
         <f t="shared" si="10"/>
         <v>34002.858407071049</v>
       </c>
-      <c r="BE37" s="74">
+      <c r="BF37" s="74">
         <f t="shared" si="10"/>
         <v>37063.115663707445</v>
       </c>
-      <c r="BF37" s="74">
+      <c r="BG37" s="74">
         <f t="shared" si="10"/>
         <v>40398.796073441117</v>
       </c>
-      <c r="BG37" s="74">
+      <c r="BH37" s="74">
         <f t="shared" si="10"/>
         <v>44034.687720050824</v>
       </c>
-      <c r="BH37" s="74">
+      <c r="BI37" s="74">
         <f t="shared" si="10"/>
         <v>47997.809614855403</v>
       </c>
-      <c r="BI37" s="74">
+      <c r="BJ37" s="74">
         <f t="shared" si="10"/>
         <v>52317.612480192394</v>
       </c>
-      <c r="BJ37" s="74">
+      <c r="BK37" s="74">
         <f t="shared" si="10"/>
         <v>57026.197603409717</v>
       </c>
-      <c r="BK37" s="74">
+      <c r="BL37" s="74">
         <f t="shared" si="10"/>
         <v>62158.555387716595</v>
       </c>
-      <c r="BL37" s="74">
+      <c r="BM37" s="74">
         <f t="shared" si="10"/>
         <v>67752.8253726111</v>
       </c>
-      <c r="BM37" s="74">
+      <c r="BN37" s="74">
         <f t="shared" si="10"/>
         <v>73850.579656146103</v>
       </c>
-      <c r="BN37" s="22">
+      <c r="BO37" s="22">
         <f t="shared" si="10"/>
         <v>80497.131825199263</v>
       </c>
     </row>
-    <row r="38" spans="5:66" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:67" x14ac:dyDescent="0.2">
       <c r="J38" s="87"/>
-      <c r="O38" s="75" t="s">
+      <c r="P38" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="77">
-        <f t="shared" ref="Q38:AV38" si="11">Q$36+Q$37</f>
+      <c r="Q38" s="76"/>
+      <c r="R38" s="77">
+        <f t="shared" ref="R38:AW38" si="11">R$36+R$37</f>
         <v>6785</v>
       </c>
-      <c r="R38" s="74">
+      <c r="S38" s="74">
         <f t="shared" si="11"/>
         <v>6835.15</v>
       </c>
-      <c r="S38" s="74">
+      <c r="T38" s="74">
         <f t="shared" si="11"/>
         <v>6889.8135000000002</v>
       </c>
-      <c r="T38" s="74">
+      <c r="U38" s="74">
         <f t="shared" si="11"/>
         <v>6949.3967149999999</v>
       </c>
-      <c r="U38" s="74">
+      <c r="V38" s="74">
         <f t="shared" si="11"/>
         <v>7014.3424193500005</v>
       </c>
-      <c r="V38" s="74">
+      <c r="W38" s="74">
         <f t="shared" si="11"/>
         <v>7085.1332370915006</v>
       </c>
-      <c r="W38" s="74">
+      <c r="X38" s="74">
         <f t="shared" si="11"/>
         <v>7162.2952284297371</v>
       </c>
-      <c r="X38" s="74">
+      <c r="Y38" s="74">
         <f t="shared" si="11"/>
         <v>7246.4017989884123</v>
       </c>
-      <c r="Y38" s="74">
+      <c r="Z38" s="74">
         <f t="shared" si="11"/>
         <v>7338.0779608973698</v>
       </c>
-      <c r="Z38" s="74">
+      <c r="AA38" s="74">
         <f t="shared" si="11"/>
         <v>7438.004977378132</v>
       </c>
-      <c r="AA38" s="74">
+      <c r="AB38" s="74">
         <f t="shared" si="11"/>
         <v>7546.9254253421641</v>
       </c>
-      <c r="AB38" s="74">
+      <c r="AC38" s="74">
         <f t="shared" si="11"/>
         <v>7665.6487136229607</v>
       </c>
-      <c r="AC38" s="74">
+      <c r="AD38" s="74">
         <f t="shared" si="11"/>
         <v>7795.0570978490268</v>
       </c>
-      <c r="AD38" s="74">
+      <c r="AE38" s="74">
         <f t="shared" si="11"/>
         <v>7936.1122366554391</v>
       </c>
-      <c r="AE38" s="74">
+      <c r="AF38" s="74">
         <f t="shared" si="11"/>
         <v>8089.8623379544279</v>
       </c>
-      <c r="AF38" s="74">
+      <c r="AG38" s="74">
         <f t="shared" si="11"/>
         <v>8257.4499483703275</v>
       </c>
-      <c r="AG38" s="74">
+      <c r="AH38" s="74">
         <f t="shared" si="11"/>
         <v>8440.1204437236574</v>
       </c>
-      <c r="AH38" s="74">
+      <c r="AI38" s="74">
         <f t="shared" si="11"/>
         <v>8639.2312836587862</v>
       </c>
-      <c r="AI38" s="74">
+      <c r="AJ38" s="74">
         <f t="shared" si="11"/>
         <v>8856.2620991880776</v>
       </c>
-      <c r="AJ38" s="74">
+      <c r="AK38" s="74">
         <f t="shared" si="11"/>
         <v>9092.8256881150046</v>
       </c>
-      <c r="AK38" s="74">
+      <c r="AL38" s="74">
         <f t="shared" si="11"/>
         <v>9350.680000045355</v>
       </c>
-      <c r="AL38" s="74">
+      <c r="AM38" s="74">
         <f t="shared" si="11"/>
         <v>9631.7412000494369</v>
       </c>
-      <c r="AM38" s="74">
+      <c r="AN38" s="74">
         <f t="shared" si="11"/>
         <v>9938.0979080538873</v>
       </c>
-      <c r="AN38" s="74">
+      <c r="AO38" s="74">
         <f t="shared" si="11"/>
         <v>10272.026719778736</v>
       </c>
-      <c r="AO38" s="74">
+      <c r="AP38" s="74">
         <f t="shared" si="11"/>
         <v>10636.009124558825</v>
       </c>
-      <c r="AP38" s="74">
+      <c r="AQ38" s="74">
         <f t="shared" si="11"/>
         <v>11032.749945769119</v>
       </c>
-      <c r="AQ38" s="74">
+      <c r="AR38" s="74">
         <f t="shared" si="11"/>
         <v>11465.19744088834</v>
       </c>
-      <c r="AR38" s="74">
+      <c r="AS38" s="74">
         <f t="shared" si="11"/>
         <v>12089.196916497547</v>
       </c>
-      <c r="AS38" s="74">
+      <c r="AT38" s="74">
         <f t="shared" si="11"/>
         <v>13177.224638982327</v>
       </c>
-      <c r="AT38" s="74">
+      <c r="AU38" s="74">
         <f t="shared" si="11"/>
         <v>14363.174856490738</v>
       </c>
-      <c r="AU38" s="74">
+      <c r="AV38" s="74">
         <f t="shared" si="11"/>
         <v>15655.860593574906</v>
       </c>
-      <c r="AV38" s="74">
+      <c r="AW38" s="74">
         <f t="shared" si="11"/>
         <v>17064.88804699665</v>
       </c>
-      <c r="AW38" s="74">
-        <f t="shared" ref="AW38:BN38" si="12">AW$36+AW$37</f>
+      <c r="AX38" s="74">
+        <f t="shared" ref="AX38:BO38" si="12">AX$36+AX$37</f>
         <v>18600.727971226348</v>
       </c>
-      <c r="AX38" s="74">
+      <c r="AY38" s="74">
         <f t="shared" si="12"/>
         <v>20274.793488636722</v>
       </c>
-      <c r="AY38" s="74">
+      <c r="AZ38" s="74">
         <f t="shared" si="12"/>
         <v>22099.52490261403</v>
       </c>
-      <c r="AZ38" s="74">
+      <c r="BA38" s="74">
         <f t="shared" si="12"/>
         <v>24088.482143849295</v>
       </c>
-      <c r="BA38" s="74">
+      <c r="BB38" s="74">
         <f t="shared" si="12"/>
         <v>26256.445536795734</v>
       </c>
-      <c r="BB38" s="74">
+      <c r="BC38" s="74">
         <f t="shared" si="12"/>
         <v>28619.525635107351</v>
       </c>
-      <c r="BC38" s="74">
+      <c r="BD38" s="74">
         <f t="shared" si="12"/>
         <v>31195.282942267015</v>
       </c>
-      <c r="BD38" s="74">
+      <c r="BE38" s="74">
         <f t="shared" si="12"/>
         <v>34002.858407071049</v>
       </c>
-      <c r="BE38" s="74">
+      <c r="BF38" s="74">
         <f t="shared" si="12"/>
         <v>37063.115663707445</v>
       </c>
-      <c r="BF38" s="74">
+      <c r="BG38" s="74">
         <f t="shared" si="12"/>
         <v>40398.796073441117</v>
       </c>
-      <c r="BG38" s="74">
+      <c r="BH38" s="74">
         <f t="shared" si="12"/>
         <v>44034.687720050824</v>
       </c>
-      <c r="BH38" s="74">
+      <c r="BI38" s="74">
         <f t="shared" si="12"/>
         <v>47997.809614855403</v>
       </c>
-      <c r="BI38" s="74">
+      <c r="BJ38" s="74">
         <f t="shared" si="12"/>
         <v>52317.612480192394</v>
       </c>
-      <c r="BJ38" s="74">
+      <c r="BK38" s="74">
         <f t="shared" si="12"/>
         <v>57026.197603409717</v>
       </c>
-      <c r="BK38" s="74">
+      <c r="BL38" s="74">
         <f t="shared" si="12"/>
         <v>62158.555387716595</v>
       </c>
-      <c r="BL38" s="74">
+      <c r="BM38" s="74">
         <f t="shared" si="12"/>
         <v>67752.8253726111</v>
       </c>
-      <c r="BM38" s="74">
+      <c r="BN38" s="74">
         <f t="shared" si="12"/>
         <v>73850.579656146103</v>
       </c>
-      <c r="BN38" s="22">
+      <c r="BO38" s="22">
         <f t="shared" si="12"/>
         <v>80497.131825199263</v>
       </c>
     </row>
-    <row r="39" spans="5:66" x14ac:dyDescent="0.2">
-      <c r="O39" s="39" t="s">
+    <row r="39" spans="5:67" x14ac:dyDescent="0.2">
+      <c r="P39" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="P39" s="78"/>
-      <c r="Q39" s="77">
-        <f t="shared" ref="Q39:AV39" si="13">Q$38/12</f>
+      <c r="Q39" s="78"/>
+      <c r="R39" s="77">
+        <f t="shared" ref="R39:AW39" si="13">R$38/12</f>
         <v>565.41666666666663</v>
       </c>
-      <c r="R39" s="74">
+      <c r="S39" s="74">
         <f t="shared" si="13"/>
         <v>569.5958333333333</v>
       </c>
-      <c r="S39" s="74">
+      <c r="T39" s="74">
         <f t="shared" si="13"/>
         <v>574.15112499999998</v>
       </c>
-      <c r="T39" s="74">
+      <c r="U39" s="74">
         <f t="shared" si="13"/>
         <v>579.11639291666665</v>
       </c>
-      <c r="U39" s="74">
+      <c r="V39" s="74">
         <f t="shared" si="13"/>
         <v>584.52853494583337</v>
       </c>
-      <c r="V39" s="74">
+      <c r="W39" s="74">
         <f t="shared" si="13"/>
         <v>590.42776975762501</v>
       </c>
-      <c r="W39" s="74">
+      <c r="X39" s="74">
         <f t="shared" si="13"/>
         <v>596.85793570247813</v>
       </c>
-      <c r="X39" s="74">
+      <c r="Y39" s="74">
         <f t="shared" si="13"/>
         <v>603.86681658236773</v>
       </c>
-      <c r="Y39" s="74">
+      <c r="Z39" s="74">
         <f t="shared" si="13"/>
         <v>611.50649674144745</v>
       </c>
-      <c r="Z39" s="74">
+      <c r="AA39" s="74">
         <f t="shared" si="13"/>
         <v>619.8337481148443</v>
       </c>
-      <c r="AA39" s="74">
+      <c r="AB39" s="74">
         <f t="shared" si="13"/>
         <v>628.91045211184701</v>
       </c>
-      <c r="AB39" s="74">
+      <c r="AC39" s="74">
         <f t="shared" si="13"/>
         <v>638.80405946858002</v>
       </c>
-      <c r="AC39" s="74">
+      <c r="AD39" s="74">
         <f t="shared" si="13"/>
         <v>649.58809148741886</v>
       </c>
-      <c r="AD39" s="74">
+      <c r="AE39" s="74">
         <f t="shared" si="13"/>
         <v>661.34268638795322</v>
       </c>
-      <c r="AE39" s="74">
+      <c r="AF39" s="74">
         <f t="shared" si="13"/>
         <v>674.15519482953562</v>
       </c>
-      <c r="AF39" s="74">
+      <c r="AG39" s="74">
         <f t="shared" si="13"/>
         <v>688.12082903086059</v>
       </c>
-      <c r="AG39" s="74">
+      <c r="AH39" s="74">
         <f t="shared" si="13"/>
         <v>703.34337031030475</v>
       </c>
-      <c r="AH39" s="74">
+      <c r="AI39" s="74">
         <f t="shared" si="13"/>
         <v>719.93594030489885</v>
       </c>
-      <c r="AI39" s="74">
+      <c r="AJ39" s="74">
         <f t="shared" si="13"/>
         <v>738.02184159900651</v>
       </c>
-      <c r="AJ39" s="74">
+      <c r="AK39" s="74">
         <f t="shared" si="13"/>
         <v>757.73547400958375</v>
       </c>
-      <c r="AK39" s="74">
+      <c r="AL39" s="74">
         <f t="shared" si="13"/>
         <v>779.22333333711288</v>
       </c>
-      <c r="AL39" s="74">
+      <c r="AM39" s="74">
         <f t="shared" si="13"/>
         <v>802.64510000411974</v>
       </c>
-      <c r="AM39" s="74">
+      <c r="AN39" s="74">
         <f t="shared" si="13"/>
         <v>828.17482567115724</v>
       </c>
-      <c r="AN39" s="74">
+      <c r="AO39" s="74">
         <f t="shared" si="13"/>
         <v>856.00222664822797</v>
       </c>
-      <c r="AO39" s="74">
+      <c r="AP39" s="74">
         <f t="shared" si="13"/>
         <v>886.33409371323535</v>
       </c>
-      <c r="AP39" s="74">
+      <c r="AQ39" s="74">
         <f t="shared" si="13"/>
         <v>919.39582881409331</v>
       </c>
-      <c r="AQ39" s="74">
+      <c r="AR39" s="74">
         <f t="shared" si="13"/>
         <v>955.43312007402835</v>
       </c>
-      <c r="AR39" s="74">
+      <c r="AS39" s="74">
         <f t="shared" si="13"/>
         <v>1007.4330763747956</v>
       </c>
-      <c r="AS39" s="74">
+      <c r="AT39" s="74">
         <f t="shared" si="13"/>
         <v>1098.1020532485272</v>
       </c>
-      <c r="AT39" s="74">
+      <c r="AU39" s="74">
         <f t="shared" si="13"/>
         <v>1196.9312380408949</v>
       </c>
-      <c r="AU39" s="74">
+      <c r="AV39" s="74">
         <f t="shared" si="13"/>
         <v>1304.6550494645755</v>
       </c>
-      <c r="AV39" s="74">
+      <c r="AW39" s="74">
         <f t="shared" si="13"/>
         <v>1422.0740039163875</v>
       </c>
-      <c r="AW39" s="74">
-        <f t="shared" ref="AW39:BN39" si="14">AW$38/12</f>
+      <c r="AX39" s="74">
+        <f t="shared" ref="AX39:BO39" si="14">AX$38/12</f>
         <v>1550.0606642688624</v>
       </c>
-      <c r="AX39" s="74">
+      <c r="AY39" s="74">
         <f t="shared" si="14"/>
         <v>1689.5661240530601</v>
       </c>
-      <c r="AY39" s="74">
+      <c r="AZ39" s="74">
         <f t="shared" si="14"/>
         <v>1841.6270752178359</v>
       </c>
-      <c r="AZ39" s="74">
+      <c r="BA39" s="74">
         <f t="shared" si="14"/>
         <v>2007.3735119874411</v>
       </c>
-      <c r="BA39" s="74">
+      <c r="BB39" s="74">
         <f t="shared" si="14"/>
         <v>2188.0371280663112</v>
       </c>
-      <c r="BB39" s="74">
+      <c r="BC39" s="74">
         <f t="shared" si="14"/>
         <v>2384.9604695922794</v>
       </c>
-      <c r="BC39" s="74">
+      <c r="BD39" s="74">
         <f t="shared" si="14"/>
         <v>2599.6069118555847</v>
       </c>
-      <c r="BD39" s="74">
+      <c r="BE39" s="74">
         <f t="shared" si="14"/>
         <v>2833.5715339225876</v>
       </c>
-      <c r="BE39" s="74">
+      <c r="BF39" s="74">
         <f t="shared" si="14"/>
         <v>3088.5929719756205</v>
       </c>
-      <c r="BF39" s="74">
+      <c r="BG39" s="74">
         <f t="shared" si="14"/>
         <v>3366.5663394534263</v>
       </c>
-      <c r="BG39" s="74">
+      <c r="BH39" s="74">
         <f t="shared" si="14"/>
         <v>3669.5573100042352</v>
       </c>
-      <c r="BH39" s="74">
+      <c r="BI39" s="74">
         <f t="shared" si="14"/>
         <v>3999.8174679046169</v>
       </c>
-      <c r="BI39" s="74">
+      <c r="BJ39" s="74">
         <f t="shared" si="14"/>
         <v>4359.8010400160329</v>
       </c>
-      <c r="BJ39" s="74">
+      <c r="BK39" s="74">
         <f t="shared" si="14"/>
         <v>4752.1831336174764</v>
       </c>
-      <c r="BK39" s="74">
+      <c r="BL39" s="74">
         <f t="shared" si="14"/>
         <v>5179.8796156430499</v>
       </c>
-      <c r="BL39" s="74">
+      <c r="BM39" s="74">
         <f t="shared" si="14"/>
         <v>5646.0687810509253</v>
       </c>
-      <c r="BM39" s="74">
+      <c r="BN39" s="74">
         <f t="shared" si="14"/>
         <v>6154.2149713455083</v>
       </c>
-      <c r="BN39" s="22">
+      <c r="BO39" s="22">
         <f t="shared" si="14"/>
         <v>6708.0943187666053</v>
       </c>
     </row>
-    <row r="40" spans="5:66" x14ac:dyDescent="0.2">
-      <c r="O40" s="39"/>
-      <c r="P40" s="78"/>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="35"/>
+    <row r="40" spans="5:67" x14ac:dyDescent="0.2">
+      <c r="P40" s="39"/>
+      <c r="Q40" s="78"/>
+      <c r="R40" s="88"/>
       <c r="S40" s="35"/>
       <c r="T40" s="35"/>
       <c r="U40" s="35"/>
@@ -7231,440 +7409,493 @@
       <c r="BK40" s="35"/>
       <c r="BL40" s="35"/>
       <c r="BM40" s="35"/>
-      <c r="BN40" s="37"/>
+      <c r="BN40" s="35"/>
+      <c r="BO40" s="37"/>
     </row>
-    <row r="41" spans="5:66" x14ac:dyDescent="0.2">
-      <c r="O41" s="89" t="s">
+    <row r="41" spans="5:67" x14ac:dyDescent="0.2">
+      <c r="P41" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="P41" s="90"/>
-      <c r="Q41" s="91">
-        <f t="shared" ref="Q41:AV41" si="15">Q32/Q38</f>
+      <c r="Q41" s="90"/>
+      <c r="R41" s="91">
+        <f t="shared" ref="R41:AW41" si="15">R32/R38</f>
         <v>1.0652372881355932</v>
       </c>
-      <c r="R41" s="92">
+      <c r="S41" s="92">
         <f t="shared" si="15"/>
         <v>1.088021239475359</v>
       </c>
-      <c r="S41" s="92">
+      <c r="T41" s="92">
         <f t="shared" si="15"/>
         <v>1.1105560708392177</v>
       </c>
-      <c r="T41" s="92">
+      <c r="U41" s="92">
         <f t="shared" si="15"/>
         <v>1.1327582750986138</v>
       </c>
-      <c r="U41" s="92">
+      <c r="V41" s="92">
         <f t="shared" si="15"/>
         <v>1.1545377980697165</v>
       </c>
-      <c r="V41" s="92">
+      <c r="W41" s="92">
         <f t="shared" si="15"/>
         <v>1.1757981018225703</v>
       </c>
-      <c r="W41" s="92">
+      <c r="X41" s="92">
         <f t="shared" si="15"/>
         <v>1.1964363444157282</v>
       </c>
-      <c r="X41" s="92">
+      <c r="Y41" s="92">
         <f t="shared" si="15"/>
         <v>1.21634369435986</v>
       </c>
-      <c r="Y41" s="92">
+      <c r="Z41" s="92">
         <f t="shared" si="15"/>
         <v>1.2354057978231312</v>
       </c>
-      <c r="Z41" s="92">
+      <c r="AA41" s="92">
         <f t="shared" si="15"/>
         <v>1.2535034154605831</v>
       </c>
-      <c r="AA41" s="92">
+      <c r="AB41" s="92">
         <f t="shared" si="15"/>
         <v>1.2705132436069704</v>
       </c>
-      <c r="AB41" s="92">
+      <c r="AC41" s="92">
         <f t="shared" si="15"/>
         <v>1.286308931261424</v>
       </c>
-      <c r="AC41" s="92">
+      <c r="AD41" s="92">
         <f t="shared" si="15"/>
         <v>1.3007622996910462</v>
       </c>
-      <c r="AD41" s="92">
+      <c r="AE41" s="92">
         <f t="shared" si="15"/>
         <v>1.3137447655233789</v>
       </c>
-      <c r="AE41" s="92">
+      <c r="AF41" s="92">
         <f t="shared" si="15"/>
         <v>1.3251289608980639</v>
       </c>
-      <c r="AF41" s="92">
+      <c r="AG41" s="92">
         <f t="shared" si="15"/>
         <v>1.3347905357216154</v>
       </c>
-      <c r="AG41" s="92">
+      <c r="AH41" s="92">
         <f t="shared" si="15"/>
         <v>1.3426101175536265</v>
       </c>
-      <c r="AH41" s="92">
+      <c r="AI41" s="92">
         <f t="shared" si="15"/>
         <v>1.3484753945199959</v>
       </c>
-      <c r="AI41" s="92">
+      <c r="AJ41" s="92">
         <f t="shared" si="15"/>
         <v>1.3522832764072947</v>
       </c>
-      <c r="AJ41" s="92">
+      <c r="AK41" s="92">
         <f t="shared" si="15"/>
         <v>1.3539420793742285</v>
       </c>
-      <c r="AK41" s="92">
+      <c r="AL41" s="92">
         <f t="shared" si="15"/>
         <v>1.353373671246719</v>
       </c>
-      <c r="AL41" s="92">
+      <c r="AM41" s="92">
         <f t="shared" si="15"/>
         <v>1.35051550791324</v>
       </c>
-      <c r="AM41" s="92">
+      <c r="AN41" s="92">
         <f t="shared" si="15"/>
         <v>1.3453224876575729</v>
       </c>
-      <c r="AN41" s="92">
+      <c r="AO41" s="92">
         <f t="shared" si="15"/>
         <v>1.3377685500112542</v>
       </c>
-      <c r="AO41" s="92">
+      <c r="AP41" s="92">
         <f t="shared" si="15"/>
         <v>1.3278479493534756</v>
       </c>
-      <c r="AP41" s="92">
+      <c r="AQ41" s="92">
         <f t="shared" si="15"/>
         <v>1.3155761412537779</v>
       </c>
-      <c r="AQ41" s="92">
+      <c r="AR41" s="92">
         <f t="shared" si="15"/>
         <v>1.3009902313516104</v>
       </c>
-      <c r="AR41" s="92">
+      <c r="AS41" s="92">
         <f t="shared" si="15"/>
         <v>1.2679359771422378</v>
       </c>
-      <c r="AS41" s="92">
+      <c r="AT41" s="92">
         <f t="shared" si="15"/>
         <v>1.1953462268784942</v>
       </c>
-      <c r="AT41" s="92">
+      <c r="AU41" s="92">
         <f t="shared" si="15"/>
         <v>1.1268706712384391</v>
       </c>
-      <c r="AU41" s="92">
+      <c r="AV41" s="92">
         <f t="shared" si="15"/>
         <v>1.0622792211711471</v>
       </c>
-      <c r="AV41" s="92">
+      <c r="AW41" s="92">
         <f t="shared" si="15"/>
         <v>1.0013544230564544</v>
       </c>
-      <c r="AW41" s="92">
-        <f t="shared" ref="AW41:BN41" si="16">AW32/AW38</f>
+      <c r="AX41" s="92">
+        <f t="shared" ref="AX41:BO41" si="16">AX32/AX38</f>
         <v>0.94389078254462788</v>
       </c>
-      <c r="AX41" s="92">
+      <c r="AY41" s="92">
         <f t="shared" si="16"/>
         <v>0.88969412320298336</v>
       </c>
-      <c r="AY41" s="92">
+      <c r="AZ41" s="92">
         <f t="shared" si="16"/>
         <v>0.83858097828747213</v>
       </c>
-      <c r="AZ41" s="92">
+      <c r="BA41" s="92">
         <f t="shared" si="16"/>
         <v>0.79037801402942598</v>
       </c>
-      <c r="BA41" s="92">
+      <c r="BB41" s="92">
         <f t="shared" si="16"/>
         <v>0.74492148289752702</v>
       </c>
-      <c r="BB41" s="92">
+      <c r="BC41" s="92">
         <f t="shared" si="16"/>
         <v>0.70205670536265063</v>
       </c>
-      <c r="BC41" s="92">
+      <c r="BD41" s="92">
         <f t="shared" si="16"/>
         <v>0.66163757875851859</v>
       </c>
-      <c r="BD41" s="92">
+      <c r="BE41" s="92">
         <f t="shared" si="16"/>
         <v>0.62352611189409302</v>
       </c>
-      <c r="BE41" s="92">
+      <c r="BF41" s="92">
         <f t="shared" si="16"/>
         <v>0.58759198413439273</v>
       </c>
-      <c r="BF41" s="92">
+      <c r="BG41" s="92">
         <f t="shared" si="16"/>
         <v>0.55371212772490763</v>
       </c>
-      <c r="BG41" s="92">
+      <c r="BH41" s="92">
         <f t="shared" si="16"/>
         <v>0.52177033219110214</v>
       </c>
-      <c r="BH41" s="92">
+      <c r="BI41" s="92">
         <f t="shared" si="16"/>
         <v>0.49165686969863726</v>
       </c>
-      <c r="BI41" s="92">
+      <c r="BJ41" s="92">
         <f t="shared" si="16"/>
         <v>0.46326814031196711</v>
       </c>
-      <c r="BJ41" s="92">
+      <c r="BK41" s="92">
         <f t="shared" si="16"/>
         <v>0.43650633613892409</v>
       </c>
-      <c r="BK41" s="92">
+      <c r="BL41" s="92">
         <f t="shared" si="16"/>
         <v>0.41127912339683625</v>
       </c>
-      <c r="BL41" s="92">
+      <c r="BM41" s="92">
         <f t="shared" si="16"/>
         <v>0.38749934148168724</v>
       </c>
-      <c r="BM41" s="92">
+      <c r="BN41" s="92">
         <f t="shared" si="16"/>
         <v>0.36508471816587645</v>
       </c>
-      <c r="BN41" s="93">
+      <c r="BO41" s="93">
         <f t="shared" si="16"/>
         <v>0.34395760009232446</v>
       </c>
     </row>
-    <row r="42" spans="5:66" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="O42" s="41" t="s">
+    <row r="42" spans="5:67" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P42" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="P42" s="94"/>
-      <c r="Q42" s="95">
-        <f t="shared" ref="Q42:AV42" si="17">Q$32-Q$38</f>
+      <c r="Q42" s="94"/>
+      <c r="R42" s="95">
+        <f t="shared" ref="R42:AW42" si="17">R$32-R$38</f>
         <v>442.63500000000022</v>
       </c>
-      <c r="R42" s="96">
+      <c r="S42" s="96">
         <f t="shared" si="17"/>
         <v>601.63837499999954</v>
       </c>
-      <c r="S42" s="96">
+      <c r="T42" s="96">
         <f t="shared" si="17"/>
         <v>761.71070937499826</v>
       </c>
-      <c r="T42" s="96">
+      <c r="U42" s="96">
         <f t="shared" si="17"/>
         <v>922.5899208593728</v>
       </c>
-      <c r="U42" s="96">
+      <c r="V42" s="96">
         <f t="shared" si="17"/>
         <v>1083.9810323933561</v>
       </c>
-      <c r="V42" s="96">
+      <c r="W42" s="96">
         <f t="shared" si="17"/>
         <v>1245.5529742406889</v>
       </c>
-      <c r="W42" s="96">
+      <c r="X42" s="96">
         <f t="shared" si="17"/>
         <v>1406.9350922989506</v>
       </c>
-      <c r="X42" s="96">
+      <c r="Y42" s="96">
         <f t="shared" si="17"/>
         <v>1567.7133360090884</v>
       </c>
-      <c r="Y42" s="96">
+      <c r="Z42" s="96">
         <f t="shared" si="17"/>
         <v>1727.4260968733815</v>
       </c>
-      <c r="Z42" s="96">
+      <c r="AA42" s="96">
         <f t="shared" si="17"/>
         <v>1885.5596659781731</v>
       </c>
-      <c r="AA42" s="96">
+      <c r="AB42" s="96">
         <f t="shared" si="17"/>
         <v>2041.5432760692238</v>
       </c>
-      <c r="AB42" s="96">
+      <c r="AC42" s="96">
         <f t="shared" si="17"/>
         <v>2194.7436906228995</v>
       </c>
-      <c r="AC42" s="96">
+      <c r="AD42" s="96">
         <f t="shared" si="17"/>
         <v>2344.4592989720859</v>
       </c>
-      <c r="AD42" s="96">
+      <c r="AE42" s="96">
         <f t="shared" si="17"/>
         <v>2489.9136728566791</v>
       </c>
-      <c r="AE42" s="96">
+      <c r="AF42" s="96">
         <f t="shared" si="17"/>
         <v>2630.2485357475052</v>
       </c>
-      <c r="AF42" s="96">
+      <c r="AG42" s="96">
         <f t="shared" si="17"/>
         <v>2764.5160919093269</v>
       </c>
-      <c r="AG42" s="96">
+      <c r="AH42" s="96">
         <f t="shared" si="17"/>
         <v>2891.6706573909287</v>
       </c>
-      <c r="AH42" s="96">
+      <c r="AI42" s="96">
         <f t="shared" si="17"/>
         <v>3010.559529922486</v>
       </c>
-      <c r="AI42" s="96">
+      <c r="AJ42" s="96">
         <f t="shared" si="17"/>
         <v>3119.9130290237226</v>
       </c>
-      <c r="AJ42" s="96">
+      <c r="AK42" s="96">
         <f t="shared" si="17"/>
         <v>3218.3336314388253</v>
       </c>
-      <c r="AK42" s="96">
+      <c r="AL42" s="96">
         <f t="shared" si="17"/>
         <v>3304.284120269298</v>
       </c>
-      <c r="AL42" s="96">
+      <c r="AM42" s="96">
         <f t="shared" si="17"/>
         <v>3376.0746588242091</v>
       </c>
-      <c r="AM42" s="96">
+      <c r="AN42" s="96">
         <f t="shared" si="17"/>
         <v>3431.8486921936892</v>
       </c>
-      <c r="AN42" s="96">
+      <c r="AO42" s="96">
         <f t="shared" si="17"/>
         <v>3469.5675708165236</v>
       </c>
-      <c r="AO42" s="96">
+      <c r="AP42" s="96">
         <f t="shared" si="17"/>
         <v>3486.9937807914666</v>
       </c>
-      <c r="AP42" s="96">
+      <c r="AQ42" s="96">
         <f t="shared" si="17"/>
         <v>3481.672655303646</v>
       </c>
-      <c r="AQ42" s="96">
+      <c r="AR42" s="96">
         <f t="shared" si="17"/>
         <v>3450.9124302248729</v>
       </c>
-      <c r="AR42" s="96">
+      <c r="AS42" s="96">
         <f t="shared" si="17"/>
         <v>3239.130788686698</v>
       </c>
-      <c r="AS42" s="96">
+      <c r="AT42" s="96">
         <f t="shared" si="17"/>
         <v>2574.1211139555271</v>
       </c>
-      <c r="AT42" s="96">
+      <c r="AU42" s="96">
         <f t="shared" si="17"/>
         <v>1822.2656351580517</v>
       </c>
-      <c r="AU42" s="96">
+      <c r="AV42" s="96">
         <f t="shared" si="17"/>
         <v>975.03480453189877</v>
       </c>
-      <c r="AV42" s="96">
+      <c r="AW42" s="96">
         <f t="shared" si="17"/>
         <v>23.113077826663357</v>
       </c>
-      <c r="AW42" s="96">
-        <f t="shared" ref="AW42:BN42" si="18">AW$32-AW$38</f>
+      <c r="AX42" s="96">
+        <f t="shared" ref="AX42:BO42" si="18">AX$32-AX$38</f>
         <v>-1043.6722905657625</v>
       </c>
-      <c r="AX42" s="96">
+      <c r="AY42" s="96">
         <f t="shared" si="18"/>
         <v>-2236.4288726425184</v>
       </c>
-      <c r="AY42" s="96">
+      <c r="AZ42" s="96">
         <f t="shared" si="18"/>
         <v>-3567.2836900916045</v>
       </c>
-      <c r="AZ42" s="96">
+      <c r="BA42" s="96">
         <f t="shared" si="18"/>
         <v>-5049.4754660104009</v>
       </c>
-      <c r="BA42" s="96">
+      <c r="BB42" s="96">
         <f t="shared" si="18"/>
         <v>-6697.4551919077021</v>
       </c>
-      <c r="BB42" s="96">
+      <c r="BC42" s="96">
         <f t="shared" si="18"/>
         <v>-8526.9957586819619</v>
       </c>
-      <c r="BC42" s="96">
+      <c r="BD42" s="96">
         <f t="shared" si="18"/>
         <v>-10555.31146765855</v>
       </c>
-      <c r="BD42" s="96">
+      <c r="BE42" s="96">
         <f t="shared" si="18"/>
         <v>-12801.188311224665</v>
       </c>
-      <c r="BE42" s="96">
+      <c r="BF42" s="96">
         <f t="shared" si="18"/>
         <v>-15285.125992667097</v>
       </c>
-      <c r="BF42" s="96">
+      <c r="BG42" s="96">
         <f t="shared" si="18"/>
         <v>-18029.492742091392</v>
       </c>
-      <c r="BG42" s="96">
+      <c r="BH42" s="96">
         <f t="shared" si="18"/>
         <v>-21058.69408042846</v>
       </c>
-      <c r="BH42" s="96">
+      <c r="BI42" s="96">
         <f t="shared" si="18"/>
         <v>-24399.356787224442</v>
       </c>
-      <c r="BI42" s="96">
+      <c r="BJ42" s="96">
         <f t="shared" si="18"/>
         <v>-28080.529440931503</v>
       </c>
-      <c r="BJ42" s="96">
+      <c r="BK42" s="96">
         <f t="shared" si="18"/>
         <v>-32133.901023611048</v>
       </c>
-      <c r="BK42" s="96">
+      <c r="BL42" s="96">
         <f t="shared" si="18"/>
         <v>-36594.039216242818</v>
       </c>
-      <c r="BL42" s="96">
+      <c r="BM42" s="96">
         <f t="shared" si="18"/>
         <v>-41498.650157200551</v>
       </c>
-      <c r="BM42" s="96">
+      <c r="BN42" s="96">
         <f t="shared" si="18"/>
         <v>-46888.86159599539</v>
       </c>
-      <c r="BN42" s="26">
+      <c r="BO42" s="26">
         <f t="shared" si="18"/>
         <v>-52809.531548288251</v>
       </c>
     </row>
-    <row r="43" spans="5:66" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="5:66" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P44" s="97" t="s">
+    <row r="43" spans="5:67" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="5:67" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q44" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="Q44" s="98"/>
+      <c r="R44" s="98"/>
     </row>
-    <row r="67" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q55" s="101"/>
+    </row>
+    <row r="56" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q56" s="101"/>
+    </row>
+    <row r="57" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q57" s="101"/>
+    </row>
+    <row r="58" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q58" s="101"/>
+    </row>
+    <row r="59" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q59" s="101"/>
+    </row>
+    <row r="60" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q60" s="101"/>
+    </row>
+    <row r="61" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q61" s="101"/>
+    </row>
+    <row r="62" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q62" s="101"/>
+    </row>
+    <row r="63" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q63" s="101"/>
+    </row>
+    <row r="64" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q64" s="101"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q65" s="101"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q66" s="101"/>
+    </row>
+    <row r="67" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B67" s="99"/>
+      <c r="Q67" s="101"/>
     </row>
-    <row r="76" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q68" s="101"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q69" s="101"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q70" s="101"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q71" s="101"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q72" s="101"/>
+    </row>
+    <row r="76" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B76" s="100"/>
     </row>
-    <row r="77" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="C77" s="100"/>
     </row>
-    <row r="78" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="C78" s="100"/>
     </row>
-    <row r="79" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="C79" s="99"/>
     </row>
     <row r="81" spans="2:2" ht="15" x14ac:dyDescent="0.2">
@@ -7682,12 +7913,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q36:BN36">
+  <conditionalFormatting sqref="R36:BO36">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q41:BN41">
+  <conditionalFormatting sqref="R41:BO41">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
